--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -737,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,6 +1251,34 @@
       </c>
       <c r="F18" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16-12-2024 20:45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Rio Ave - Guimaraes</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,102 +1447,68 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-12-2024 01:30</t>
+          <t>15-12-2024 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CD Olimpia - Olancho</t>
+          <t>Pontedera - Perugia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-12-2024 14:00</t>
+          <t>15-12-2024 16:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pontedera - Perugia</t>
+          <t>Cultural Leonesa - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cultural Leonesa - Gimnástica Segoviana</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="n">
         <v>3.2</v>
       </c>
     </row>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,113 +471,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-12-2024 12:30</t>
+          <t>16-12-2024 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Energie Cottbus - Hansa Rostock</t>
+          <t>Asyut Petrol - La Viena FC</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-12-2024 15:00</t>
+          <t>16-12-2024 12:25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Amarante - Varzim</t>
+          <t>Al Taee - Al Arabi SC</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>15-12-2024 15:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SWITZERLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FC Lugano - Lausanne</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Djoliba - Sagrada Esperança</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,100 +573,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-12-2024 11:00</t>
+          <t>17-12-2024 08:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KENYA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FKF PREMIER LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shabana - KCB</t>
+          <t>Malut United - PSM Makassar</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Guijuelo - Real Avilés</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>UD Logroñés - Real Sociedad III</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>15-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nazilli Belediyespor - Karaman Belediyespor</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
         <v>60</v>
       </c>
     </row>
@@ -737,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,504 +649,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-12-2024 17:00</t>
+          <t>16-12-2024 20:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Como - AS Roma</t>
+          <t>Rio Ave - Guimaraes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-12-2024 20:00</t>
+          <t>16-12-2024 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GEORGIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>EROVNULI LIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barcelona - Leganes</t>
+          <t>Gagra - Sioni</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-12-2024 14:00</t>
+          <t>17-12-2024 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NK Varazdin - NK Osijek</t>
+          <t>Rochdale - Tamworth</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-12-2024 14:00</t>
+          <t>17-12-2024 08:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brescia - Carrarese</t>
+          <t>Malut United - PSM Makassar</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-12-2024 12:00</t>
+          <t>17-12-2024 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AZERBAIDJAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMYER LIQA</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zira - Turan</t>
+          <t>Singapore - Thailand</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BELGIUM</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>JUPILER PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Union St. Gilloise - KVC Westerlo</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>15-12-2024 07:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HONG-KONG</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SAPLING CUP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>North District - Eastern</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>15-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>INDIAN SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mohammedan - Mumbai City</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>15-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Pontedera - Perugia</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>15-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SS Monopoli - Taranto</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>15-12-2024 12:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MALTA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Marsaxlokk - Naxxar Lions</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>15-12-2024 15:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Maritimo - Torreense</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>15-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Felgueiras 1932 - Vizela</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>92</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Cultural Leonesa - Gimnástica Segoviana</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>76</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>15-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ucam Murcia - Don Benito</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Trat FC - Police Tero</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>15-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Hatayspor - Goztepe</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>80</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>16-12-2024 20:45</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PRIMEIRA LIGA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Rio Ave - Guimaraes</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F19" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -1292,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,171 +850,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-12-2024 14:00</t>
+          <t>16-12-2024 12:25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Montpellier - Nice</t>
+          <t>Al Taee - Al Arabi SC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>53.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-12-2024 12:30</t>
+          <t>17-12-2024 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Club Brugge KV - Genk</t>
+          <t>Waalwijk - Cambuur</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
         <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-12-2024 12:30</t>
+          <t>07-12-2024 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2. BUNDESLIGA</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SpVgg Greuther Fürth - Hannover 96</t>
+          <t>Dungannon Swifts - Linfield</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
         <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-12-2024 14:00</t>
+          <t>17-12-2024 12:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pontedera - Perugia</t>
+          <t>Singapore - Thailand</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>15-12-2024 16:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cultural Leonesa - Gimnástica Segoviana</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,57 +471,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-12-2024 12:30</t>
+          <t>18-12-2024 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>BOLIVIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Asyut Petrol - La Viena FC</t>
+          <t>Guabirá - Royal Pari</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16-12-2024 12:25</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Al Taee - Al Arabi SC</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +564,31 @@
         </is>
       </c>
       <c r="E2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AFF CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Myanmar - Laos</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>60</v>
       </c>
     </row>
@@ -606,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,141 +646,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-12-2024 20:45</t>
+          <t>17-12-2024 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rio Ave - Guimaraes</t>
+          <t>Rochdale - Tamworth</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16-12-2024 14:00</t>
+          <t>17-12-2024 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEORGIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EROVNULI LIGA</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gagra - Sioni</t>
+          <t>MVV - Feyenoord</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-12-2024 19:45</t>
+          <t>17-12-2024 08:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rochdale - Tamworth</t>
+          <t>Malut United - PSM Makassar</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-12-2024 08:30</t>
+          <t>17-12-2024 12:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Malut United - PSM Makassar</t>
+          <t>Singapore - Thailand</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-12-2024 12:30</t>
+          <t>18-12-2024 17:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>COPPA ITALIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Singapore - Thailand</t>
+          <t>Atalanta - Cesena</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18-12-2024 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KNVB BEKER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ASWH - Heerenveen</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-12-2024 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>KNVB BEKER</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AFC Amsterdam - Utrecht</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CUPA ROMÂNIEI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Politehnica Iasi - AFC Hermannstadt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-12-2024 18:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Racing Ferrol - Almeria</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24-11-2024 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bergantiños - Deportivo La Coruña II</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,35 +987,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-12-2024 12:25</t>
+          <t>17-12-2024 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Taee - Al Arabi SC</t>
+          <t>Waalwijk - Cambuur</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>53.3</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
@@ -889,27 +1026,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BOLIVIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Waalwijk - Cambuur</t>
+          <t>Gualberto Villarroel SJ - Blooming</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
@@ -981,6 +1118,40 @@
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18-12-2024 00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BOLIVIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Guabirá - Royal Pari</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,29 +471,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-12-2024 00:00</t>
+          <t>18-12-2024 14:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOLIVIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Guabirá - Royal Pari</t>
+          <t>Torreense U23 - Sporting Braga U23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18-12-2024 10:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Keçiörengücü - Sivasspor</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19-12-2024 18:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cadiz - Burgos</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,30 +597,38 @@
           <t>Draw (%)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Draw Odds</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-12-2024 08:30</t>
+          <t>18-12-2024 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Malut United - PSM Makassar</t>
+          <t>Stade Renard - Canon</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -590,6 +654,37 @@
       </c>
       <c r="E3" t="n">
         <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19-12-2024 18:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CUPA ROMÂNIEI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS Afumati - Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,35 +741,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-12-2024 19:45</t>
+          <t>18-12-2024 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>COPPA ITALIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rochdale - Tamworth</t>
+          <t>Atalanta - Cesena</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-12-2024 20:00</t>
+          <t>18-12-2024 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -689,188 +784,188 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MVV - Feyenoord</t>
+          <t>ASWH - Heerenveen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-12-2024 08:30</t>
+          <t>18-12-2024 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malut United - PSM Makassar</t>
+          <t>AFC Amsterdam - Utrecht</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-12-2024 12:30</t>
+          <t>18-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>CUPA ROMÂNIEI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Singapore - Thailand</t>
+          <t>Politehnica Iasi - AFC Hermannstadt</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-12-2024 17:30</t>
+          <t>18-12-2024 18:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atalanta - Cesena</t>
+          <t>Racing Ferrol - Almeria</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18-12-2024 19:00</t>
+          <t>24-11-2024 16:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ASWH - Heerenveen</t>
+          <t>Bergantiños - Deportivo La Coruña II</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-12-2024 19:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AFC Amsterdam - Utrecht</t>
+          <t>Larne - Gent</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18-12-2024 15:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Politehnica Iasi - AFC Hermannstadt</t>
+          <t>Celje - The New Saints</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-12-2024 18:00</t>
+          <t>19-12-2024 20:15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -885,42 +980,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Racing Ferrol - Almeria</t>
+          <t>Huesca - Tenerife</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>24-11-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Bergantiños - Deportivo La Coruña II</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,109 +1054,109 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-12-2024 19:00</t>
+          <t>18-12-2024 10:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Waalwijk - Cambuur</t>
+          <t>Keçiörengücü - Sivasspor</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-12-2024 19:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOLIVIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gualberto Villarroel SJ - Blooming</t>
+          <t>1. FC Heidenheim - FC ST. Gallen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-12-2024 15:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Linfield</t>
+          <t>Djurgardens IF - Legia Warszawa</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-12-2024 12:30</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1099,59 +1166,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Singapore - Thailand</t>
+          <t>TSC Backa Topola - FC Noah</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>18-12-2024 00:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BOLIVIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Guabirá - Royal Pari</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,85 +471,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-12-2024 14:30</t>
+          <t>19-12-2024 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Torreense U23 - Sporting Braga U23</t>
+          <t>Eemdijk - Barendrecht</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-12-2024 10:00</t>
+          <t>19-12-2024 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Sivasspor</t>
+          <t>Cadiz - Burgos</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-12-2024 18:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cadiz - Burgos</t>
+          <t>Stockport County - Peterborough</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>70</v>
       </c>
       <c r="F4" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGA LEUMIT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hapoel Kfar Shalem - Hapoel Ramat HaSharon</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AFF CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Malaysia - Singapore</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,84 +662,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-12-2024 14:00</t>
+          <t>19-12-2024 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAMEROON</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELITE ONE</t>
+          <t>CUPA ROMÂNIEI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stade Renard - Canon</t>
+          <t>CS Afumati - Arges Pitesti</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>18-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AFF CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Myanmar - Laos</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>19-12-2024 18:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CUPA ROMÂNIEI</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CS Afumati - Arges Pitesti</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F4" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -698,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,147 +741,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-12-2024 17:30</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COPPA ITALIA</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atalanta - Cesena</t>
+          <t>Larne - Gent</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-12-2024 19:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASWH - Heerenveen</t>
+          <t>Celje - The New Saints</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-12-2024 19:00</t>
+          <t>19-12-2024 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AFC Amsterdam - Utrecht</t>
+          <t>CS Constantine U21 - NC Magra U21</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>78.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-12-2024 15:00</t>
+          <t>19-12-2024 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Politehnica Iasi - AFC Hermannstadt</t>
+          <t>ES Sétif U21 - USM Alger U21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18-12-2024 18:00</t>
+          <t>19-12-2024 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>U21 LEAGUE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Racing Ferrol - Almeria</t>
+          <t>MC Alger U21 - ASO Chlef U21</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-11-2024 16:00</t>
+          <t>19-12-2024 20:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -891,103 +891,75 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bergantiños - Deportivo La Coruña II</t>
+          <t>Huesca - Tenerife</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Larne - Gent</t>
+          <t>Cambridge United - Huddersfield</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celje - The New Saints</t>
+          <t>Pontedera - Legnago Salus</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>19-12-2024 20:15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Huesca - Tenerife</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.37</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,35 +1026,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-12-2024 10:00</t>
+          <t>19-12-2024 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Keçiörengücü - Sivasspor</t>
+          <t>1. FC Heidenheim - FC ST. Gallen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
@@ -1103,20 +1075,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1. FC Heidenheim - FC ST. Gallen</t>
+          <t>Djurgardens IF - Legia Warszawa</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1137,54 +1109,156 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Djurgardens IF - Legia Warszawa</t>
+          <t>TSC Backa Topola - FC Noah</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Verona - AC Milan</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20-12-2024 19:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Dordrecht - FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-12-2024 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CHALLENGER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Club Brugge II - Zulte Waregem</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TSC Backa Topola - FC Noah</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AFF CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Malaysia - Singapore</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.65</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G8" t="n">
         <v>60</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.6</v>
+      <c r="H8" t="n">
+        <v>2.63</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,54 +471,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-12-2024 19:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Eemdijk - Barendrecht</t>
+          <t>Stockport County - Peterborough</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-12-2024 18:00</t>
+          <t>20-12-2024 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cadiz - Burgos</t>
+          <t>Hapoel Kfar Shalem - Hapoel Ramat HaSharon</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
         <v>1.91</v>
@@ -527,85 +527,225 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>20-12-2024 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stockport County - Peterborough</t>
+          <t>Malaysia - Singapore</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Ramat HaSharon</t>
+          <t>Notts County - Bradford</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Malaysia - Singapore</t>
+          <t>Livingston - Ayr Utd</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kelty Hearts - Queen Of The South</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-12-2024 19:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CHALLENGER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RAAL La Louvière - RWDM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>South Shields - Marine</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bath City - Aveley</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eibar - Granada CF</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,29 +802,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-12-2024 18:00</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ROMANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUPA ROMÂNIEI</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS Afumati - Arges Pitesti</t>
+          <t>Lincoln - Reading</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Weston-super-Mare - Eastbourne Borough</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alemannia Aachen - SV Wehen</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21-12-2024 16:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Casertana - Latina</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>21-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vizela - FC Porto B</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>21-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Zaragoza - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,138 +1021,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Larne - Gent</t>
+          <t>Cambridge United - Huddersfield</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celje - The New Saints</t>
+          <t>Pontedera - Legnago Salus</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-12-2024 14:00</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS Constantine U21 - NC Magra U21</t>
+          <t>Hull City - Swansea</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-12-2024 14:00</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ES Sétif U21 - USM Alger U21</t>
+          <t>Lincoln - Reading</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-12-2024 12:30</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>U21 LEAGUE 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC Alger U21 - ASO Chlef U21</t>
+          <t>Braintree - Oldham</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
         <v>1.8</v>
@@ -881,35 +1161,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-12-2024 20:15</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Huesca - Tenerife</t>
+          <t>Eastleigh - Maidenhead</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -919,47 +1199,327 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cambridge United - Huddersfield</t>
+          <t>Solihull Moors - AFC Fylde</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-12-2024 19:30</t>
+          <t>21-12-2024 20:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Moreirense - FC Porto</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Peterhead - Bonnyrigg Rose Athletic</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Scarborough Athletic - Peterborough Sports</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chelmsford City - Weymouth</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Worthing - Enfield Town</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Alemannia Aachen - SV Wehen</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>21-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>ITALY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pontedera - Legnago Salus</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>88</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.85</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Clodiense - Lecco</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lumezzane - Virtus Verona</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MOROCCO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Riadi Salmi - Moghreb Tetouan</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>21-12-2024 18:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mérida AD - Fuenlabrada</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>21-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sivasspor - Samsunspor</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,143 +1586,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1. FC Heidenheim - FC ST. Gallen</t>
+          <t>Verona - AC Milan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Djurgardens IF - Legia Warszawa</t>
+          <t>Dordrecht - FC Eindhoven</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-12-2024 20:00</t>
+          <t>20-12-2024 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UEFA EUROPA CONFERENCE LEAGUE</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TSC Backa Topola - FC Noah</t>
+          <t>Club Brugge II - Zulte Waregem</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>20-12-2024 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Verona - AC Milan</t>
+          <t>Malaysia - Singapore</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20-12-2024 19:00</t>
+          <t>21-12-2024 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1172,93 +1732,161 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dordrecht - FC Eindhoven</t>
+          <t>Heracles - Groningen</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-12-2024 19:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Club Brugge II - Zulte Waregem</t>
+          <t>Stirling Albion - Stranraer</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Malaysia - Singapore</t>
+          <t>Chorley - Rushall Olympic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>2.63</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21-12-2024 16:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Team Altamura - Crotone</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Loughgall - Ballymena United</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Draw" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Btts" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Over_Under" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Away Win" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,100 +482,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Stockport County - Peterborough</t>
+          <t>Notts County - Bradford</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA LEUMIT</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hapoel Kfar Shalem - Hapoel Ramat HaSharon</t>
+          <t>Livingston - Ayr Utd</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malaysia - Singapore</t>
+          <t>Kelty Hearts - Queen Of The South</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>71.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Notts County - Bradford</t>
+          <t>RAAL La Louvière - RWDM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
         <v>2.2</v>
@@ -583,29 +584,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>ELITE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Livingston - Ayr Utd</t>
+          <t>Eding Sport - Bafmeng United</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -616,136 +617,220 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kelty Hearts - Queen Of The South</t>
+          <t>South Shields - Marine</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-12-2024 19:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RAAL La Louvière - RWDM</t>
+          <t>Bath City - Aveley</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>South Shields - Marine</t>
+          <t>Le Puy Foot - Montpellier</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bath City - Aveley</t>
+          <t>Darajani Gogo - Mombasa Elite</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TAÇA DE PORTUGAL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital - São João Ver</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>21-12-2024 13:00</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Eibar - Granada CF</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>80</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>2.37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Keçiörengücü - Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Goztepe - Rizespor</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -759,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -914,7 +999,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 11:00</t>
+          <t>21-12-2024 11:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -924,47 +1009,215 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>JÚNIORES U19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vizela - FC Porto B</t>
+          <t>Academico Viseu U19 - Benfica U19</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 17:30</t>
+          <t>21-12-2024 11:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zaragoza - Racing Ferrol</t>
+          <t>Vizela - FC Porto B</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Zaragoza - Racing Ferrol</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>22-12-2024 16:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Panathinaikos - Kallithea</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Milan II - Virtus Entella</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gimnástica Segoviana - Lugo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-12-2024 16:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SD Logroñés - Utebo</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Police Tero - Kasetsart FC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,7 +1274,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1031,53 +1284,53 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambridge United - Huddersfield</t>
+          <t>Hull City - Swansea</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-12-2024 19:30</t>
+          <t>21-12-2024 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pontedera - Legnago Salus</t>
+          <t>Lincoln - Reading</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-12-2024 12:30</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1087,25 +1340,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hull City - Swansea</t>
+          <t>Braintree - Oldham</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 12:30</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1115,12 +1368,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lincoln - Reading</t>
+          <t>Eastleigh - Maidenhead</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1148,42 +1401,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Braintree - Oldham</t>
+          <t>Solihull Moors - AFC Fylde</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 20:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Eastleigh - Maidenhead</t>
+          <t>Moreirense - FC Porto</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -1194,52 +1447,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Solihull Moors - AFC Fylde</t>
+          <t>Peterhead - Bonnyrigg Rose Athletic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>78.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-12-2024 20:30</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moreirense - FC Porto</t>
+          <t>Chorley - Rushall Olympic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1250,24 +1503,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Peterhead - Bonnyrigg Rose Athletic</t>
+          <t>Scarborough Athletic - Peterborough Sports</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>78.3</v>
+        <v>83.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">
@@ -1283,19 +1536,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Peterborough Sports</t>
+          <t>Chelmsford City - Weymouth</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>83.3</v>
+        <v>78.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1569,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chelmsford City - Weymouth</t>
+          <t>Worthing - Enfield Town</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1329,7 +1582,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 12:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1339,19 +1592,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PREMIER LEAGUE CUP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Worthing - Enfield Town</t>
+          <t>Chelsea U21 - AFC Bournemouth U21</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>78.3</v>
+        <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -1441,85 +1694,561 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 16:30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Riadi Salmi - Moghreb Tetouan</t>
+          <t>Team Altamura - Crotone</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-12-2024 18:30</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mérida AD - Fuenlabrada</t>
+          <t>Riadi Salmi - Moghreb Tetouan</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>76.7</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>21-12-2024 18:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mérida AD - Fuenlabrada</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>21-12-2024 13:00</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>TURKEY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>SÜPER LIG</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Sivasspor - Samsunspor</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>80</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>22-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fulham - Southampton</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-12-2024 17:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Atalanta - Empoli</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22-12-2024 13:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Utrecht - Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Union St. Gilloise - Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>22-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Standard Liege - Gent</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>22-12-2024 00:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EL-SALVADOR</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FAS - Once Municipal</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira - Alverca</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22-12-2024 14:30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sanluqueño - Hércules</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22-12-2024 20:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Deportivo La Coruna - Mirandes</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Deportivo Alavés II</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22-12-2024 18:45</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cornellà - Espanyol II</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Navalcarnero - SS Reyes</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kepez Belediyespor - Hekimoğlu Trabzon</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>İnegölspor - Adana 1954 FK</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>76</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Serik Belediyespor - Erbaaspor</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>76</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>22-12-2024 14:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The New Saints - Briton Ferry</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>76</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +2262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,205 +2315,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-12-2024 19:45</t>
+          <t>21-12-2024 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Verona - AC Milan</t>
+          <t>Heracles - Groningen</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-12-2024 19:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dordrecht - FC Eindhoven</t>
+          <t>Stirling Albion - Stranraer</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20-12-2024 19:00</t>
+          <t>21-12-2024 06:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Club Brugge II - Zulte Waregem</t>
+          <t>Brisbane Roar - Perth Glory</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20-12-2024 13:00</t>
+          <t>21-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Malaysia - Singapore</t>
+          <t>Chorley - Rushall Olympic</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 20:00</t>
+          <t>21-12-2024 16:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heracles - Groningen</t>
+          <t>Team Altamura - Crotone</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>46.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>21-12-2024 12:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Stirling Albion - Stranraer</t>
+          <t>Luanda Villa - Fortune Sacco</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
@@ -1795,98 +2524,449 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chorley - Rushall Olympic</t>
+          <t>Loughgall - Ballymena United</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-12-2024 16:30</t>
+          <t>22-12-2024 13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Team Altamura - Crotone</t>
+          <t>Utrecht - Fortuna Sittard</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>46.7</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 13:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Loughgall - Ballymena United</t>
+          <t>PSV Eindhoven - Feyenoord</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G10" t="n">
         <v>80</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>22-12-2024 06:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers - Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Union St. Gilloise - Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>85</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>22-12-2024 12:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1. FC Kaiserslautern - 1.FC Köln</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>85</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>22-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Deportivo Alavés II</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Getafe II - Cacereño</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>22-12-2024 10:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Keçiörengücü - Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.8</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G16" t="n">
+        <v>45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Serik Belediyespor - Erbaaspor</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22-12-2024 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Trabzonspor - BB Bodrumspor</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Championship</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Away Win (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Away Odds</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22-12-2024 11:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ankaraspor - Fethiyespor</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>70</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.88</v>
+      <c r="F2" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,365 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Notts County - Bradford</t>
+          <t>Racing Santander - Eldense</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Livingston - Ayr Utd</t>
+          <t>Keçiörengücü - Fatih Karagümrük</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kelty Hearts - Queen Of The South</t>
+          <t>Goztepe - Rizespor</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 19:00</t>
+          <t>22-12-2024 16:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RAAL La Louvière - RWDM</t>
+          <t>Ivory Coast - Burkina Faso</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-12-2024 12:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CAMEROON</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELITE TWO</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Eding Sport - Bafmeng United</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>South Shields - Marine</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bath City - Aveley</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>21-12-2024 17:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Le Puy Foot - Montpellier</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21-12-2024 12:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>KENYA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Darajani Gogo - Mombasa Elite</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>21-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>TAÇA DE PORTUGAL</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital - São João Ver</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>21-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Eibar - Granada CF</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Keçiörengücü - Fatih Karagümrük</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>22-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Goztepe - Rizespor</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,175 +635,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-12-2024 12:30</t>
+          <t>22-12-2024 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SUPER LEAGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lincoln - Reading</t>
+          <t>Panathinaikos - Kallithea</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Eastbourne Borough</t>
+          <t>Stade Renard - Cotonsport</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-12-2024 15:30</t>
+          <t>22-12-2024 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alemannia Aachen - SV Wehen</t>
+          <t>Milan II - Virtus Entella</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 16:30</t>
+          <t>22-12-2024 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>BOTOLA 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Casertana - Latina</t>
+          <t>Stade Marocain - El Massira</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 11:30</t>
+          <t>22-12-2024 14:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JÚNIORES U19</t>
+          <t>BOTOLA 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Academico Viseu U19 - Benfica U19</t>
+          <t>Chabab Atl. Khenifra - Kawkab Marrakech</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 11:00</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vizela - FC Porto B</t>
+          <t>Gimnástica Segoviana - Lugo</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-12-2024 17:30</t>
+          <t>22-12-2024 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1065,159 +813,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zaragoza - Racing Ferrol</t>
+          <t>SD Logroñés - Utebo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-12-2024 16:00</t>
+          <t>22-12-2024 11:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 1</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Panathinaikos - Kallithea</t>
+          <t>Police Tero - Kasetsart FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-12-2024 14:00</t>
+          <t>23-12-2024 13:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SERBIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>SUPER LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Milan II - Virtus Entella</t>
+          <t>OFK Beograd - TSC Backa Topola</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Gimnástica Segoviana - Lugo</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SD Logroñés - Utebo</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" t="n">
         <v>3.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Police Tero - Kasetsart FC</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,7 +938,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-12-2024 12:30</t>
+          <t>22-12-2024 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1284,96 +948,96 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hull City - Swansea</t>
+          <t>Fulham - Southampton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>81.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-12-2024 12:30</t>
+          <t>22-12-2024 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lincoln - Reading</t>
+          <t>Atalanta - Empoli</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 13:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Braintree - Oldham</t>
+          <t>Utrecht - Fortuna Sittard</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 17:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eastleigh - Maidenhead</t>
+          <t>Union St. Gilloise - Club Brugge KV</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1386,35 +1050,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Solihull Moors - AFC Fylde</t>
+          <t>Standard Liege - Gent</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 20:30</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1424,72 +1088,72 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moreirense - FC Porto</t>
+          <t>Pacos Ferreira - Alverca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 14:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Peterhead - Bonnyrigg Rose Athletic</t>
+          <t>Sanluqueño - Hércules</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.3</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 20:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chorley - Rushall Olympic</t>
+          <t>Deportivo La Coruna - Mirandes</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -1498,757 +1162,197 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 10:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Peterborough Sports</t>
+          <t>Real Zaragoza II - Deportivo Alavés II</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 18:45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chelmsford City - Weymouth</t>
+          <t>Cornellà - Espanyol II</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>78.3</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Worthing - Enfield Town</t>
+          <t>Navalcarnero - SS Reyes</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>78.3</v>
+        <v>86.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21-12-2024 12:00</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE CUP</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chelsea U21 - AFC Bournemouth U21</t>
+          <t>İnegölspor - Adana 1954 FK</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21-12-2024 15:30</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Alemannia Aachen - SV Wehen</t>
+          <t>Serik Belediyespor - Erbaaspor</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21-12-2024 14:00</t>
+          <t>22-12-2024 14:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Clodiense - Lecco</t>
+          <t>The New Saints - Briton Ferry</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>76</v>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21-12-2024 14:00</t>
+          <t>23-12-2024 20:45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lumezzane - Virtus Verona</t>
+          <t>Estrela - Rio Ave</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>21-12-2024 16:30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Team Altamura - Crotone</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>84</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>21-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MOROCCO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BOTOLA PRO</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Riadi Salmi - Moghreb Tetouan</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>21-12-2024 18:30</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mérida AD - Fuenlabrada</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>21-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sivasspor - Samsunspor</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>80</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Fulham - Southampton</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22-12-2024 17:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SERIE A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Atalanta - Empoli</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>22-12-2024 13:30</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>EREDIVISIE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Utrecht - Fortuna Sittard</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22-12-2024 17:30</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BELGIUM</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>JUPILER PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Union St. Gilloise - Club Brugge KV</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>80</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>22-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BELGIUM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>JUPILER PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Standard Liege - Gent</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>22-12-2024 00:30</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>EL-SALVADOR</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>FAS - Once Municipal</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Pacos Ferreira - Alverca</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>76</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22-12-2024 14:30</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Sanluqueño - Hércules</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>80</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22-12-2024 20:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Deportivo La Coruna - Mirandes</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>22-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - Deportivo Alavés II</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>22-12-2024 18:45</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Cornellà - Espanyol II</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>75</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Navalcarnero - SS Reyes</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Kepez Belediyespor - Hekimoğlu Trabzon</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>76</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>İnegölspor - Adana 1954 FK</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>76</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Serik Belediyespor - Erbaaspor</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>76</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>22-12-2024 14:30</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>The New Saints - Briton Ferry</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>76</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,7 +1419,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-12-2024 20:00</t>
+          <t>22-12-2024 13:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2330,60 +1434,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heracles - Groningen</t>
+          <t>Utrecht - Fortuna Sittard</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 13:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stirling Albion - Stranraer</t>
+          <t>PSV Eindhoven - Feyenoord</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G3" t="n">
         <v>80</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-12-2024 06:00</t>
+          <t>22-12-2024 06:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2398,119 +1502,119 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brisbane Roar - Perth Glory</t>
+          <t>Western Sydney Wanderers - Wellington Phoenix</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 17:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chorley - Rushall Olympic</t>
+          <t>Union St. Gilloise - Club Brugge KV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-12-2024 16:30</t>
+          <t>22-12-2024 12:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Team Altamura - Crotone</t>
+          <t>1. FC Kaiserslautern - 1.FC Köln</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>46.7</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21-12-2024 12:00</t>
+          <t>22-12-2024 10:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KENYA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Luanda Villa - Fortune Sacco</t>
+          <t>Real Zaragoza II - Deportivo Alavés II</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>66.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
         <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -2519,375 +1623,239 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-12-2024 15:00</t>
+          <t>22-12-2024 10:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Loughgall - Ballymena United</t>
+          <t>Getafe II - Cacereño</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-12-2024 13:30</t>
+          <t>22-12-2024 10:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Utrecht - Fortuna Sittard</t>
+          <t>Keçiörengücü - Fatih Karagümrük</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-12-2024 13:30</t>
+          <t>22-12-2024 11:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSV Eindhoven - Feyenoord</t>
+          <t>Serik Belediyespor - Erbaaspor</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>86.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>80</v>
+        <v>33.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-12-2024 06:00</t>
+          <t>22-12-2024 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers - Wellington Phoenix</t>
+          <t>Trabzonspor - BB Bodrumspor</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>73.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-12-2024 17:30</t>
+          <t>23-12-2024 17:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Union St. Gilloise - Club Brugge KV</t>
+          <t>Fiorentina - Udinese</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>22-12-2024 12:30</t>
+          <t>23-12-2024 20:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2. BUNDESLIGA</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1. FC Kaiserslautern - 1.FC Köln</t>
+          <t>Estrela - Rio Ave</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22-12-2024 10:30</t>
+          <t>23-12-2024 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Real Zaragoza II - Deportivo Alavés II</t>
+          <t>Trapani 1905 - Foggia</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>26.7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>22-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Getafe II - Cacereño</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>60</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>22-12-2024 10:30</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Keçiörengücü - Fatih Karagümrük</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>90</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>45</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>22-12-2024 11:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Serik Belediyespor - Erbaaspor</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="H17" t="n">
         <v>3.4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>22-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Trabzonspor - BB Bodrumspor</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2901,7 +1869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2944,29 +1912,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tersana - El Dakhleya</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>22-12-2024 11:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>TURKEY</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2. LIG</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Ankaraspor - Fethiyespor</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>70</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.05</v>
+      <c r="F3" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -472,29 +472,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-12-2024 18:15</t>
+          <t>24-12-2024 10:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>AZERBAIDJAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>BIRINCI DASTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Campinense - Afogados</t>
+          <t>Qaradağ Lökbatan - Zaqatala</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -551,29 +551,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-12-2024 13:30</t>
+          <t>25-12-2024 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SERBIA</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPER LIGA</t>
+          <t>GULF CUP OF NATIONS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OFK Beograd - TSC Backa Topola</t>
+          <t>Bahrain - Iraq</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -630,29 +630,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-12-2024 20:45</t>
+          <t>24-12-2024 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Estrela - Rio Ave</t>
+          <t>Tira - Maccabi Ahi Nazareth</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-12-2024 10:00</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AZERBAIDJAN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BIRINCI DASTA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Qaradağ Lökbatan - Zaqatala</t>
+          <t>Watford - Portsmouth</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Huddersfield - Stockport County</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dagenham &amp; Redbridge - Braintree</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>73.3</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.6</v>
+      <c r="F4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Oldham - York</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GC Mascara - Oued Sly</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Stockton Town - Hebburn Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,29 +691,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TUNISIA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jerba - EO Sidi Bouzid</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>25-12-2024 17:30</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>WORLD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>GULF CUP OF NATIONS</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Bahrain - Iraq</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>60</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bromley - Newport County</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tamworth - Forest Green</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reggiana - Juve Stabia</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ALGERIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Témouchent - WA Mostaganem</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>National Bank Of Egypt - Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Eastbourne Borough - Salisbury</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>26-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sholing - Wimborne Town</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,29 +994,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-12-2024 17:00</t>
+          <t>26-12-2024 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tira - Maccabi Ahi Nazareth</t>
+          <t>Derby - West Brom</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Oxford United - Cardiff</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Preston - Hull City</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Woking</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gateshead - Hartlepool</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tamworth - Forest Green</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Enfield Town - Boreham Wood</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>90</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Weymouth - Torquay</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Crusaders FC - Cliftonville FC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>26-12-2024 14:30</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town - Bala Town</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,103 +1335,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-12-2024 17:30</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fiorentina - Udinese</t>
+          <t>Dundee - Ross County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23-12-2024 20:45</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estrela - Rio Ave</t>
+          <t>Gateshead - Hartlepool</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>68.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23-12-2024 19:30</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Trapani 1905 - Foggia</t>
+          <t>Radcliffe - Chorley</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kettering Town - Biggleswade Town</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Crusaders FC - Cliftonville FC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
+      <c r="F6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -872,57 +1554,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-12-2024 15:00</t>
+          <t>26-12-2024 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tersana - El Dakhleya</t>
+          <t>Bowers &amp; Pitsea - Hashtag United</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-12-2024 11:00</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ankaraspor - Fethiyespor</t>
+          <t>Hastings United - Dover</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,253 +691,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-12-2024 13:00</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TUNISIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jerba - EO Sidi Bouzid</t>
+          <t>Bromley - Newport County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.65</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-12-2024 17:30</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GULF CUP OF NATIONS</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bahrain - Iraq</t>
+          <t>Tamworth - Forest Green</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>26-12-2024 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bromley - Newport County</t>
+          <t>Reggiana - Juve Stabia</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>26-12-2024 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tamworth - Forest Green</t>
+          <t>Témouchent - WA Mostaganem</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-12-2024 14:00</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reggiana - Juve Stabia</t>
+          <t>National Bank Of Egypt - Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-12-2024 13:00</t>
+          <t>26-12-2024 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Témouchent - WA Mostaganem</t>
+          <t>Eastbourne Borough - Salisbury</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>26-12-2024 13:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>National Bank Of Egypt - Ceramica Cleopatra</t>
+          <t>Sholing - Wimborne Town</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>PERSIAN GULF PRO LEAGUE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Eastbourne Borough - Salisbury</t>
+          <t>Shams Azar Qazvin - Gol Gohar</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sholing - Wimborne Town</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,6 +1241,34 @@
       </c>
       <c r="F11" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>27-12-2024 13:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AFF CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Philippines - Thailand</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +1498,108 @@
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>27-12-2024 12:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGA ALEF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Maccabi K. Ata Bialik - Maccabi Nujeidat Ahmed</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>27-12-2024 12:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>STATE CUP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hapoel Afula - Ashdod</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27-12-2024 12:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>STATE CUP</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hapoel Ramat HaSharon - Maccabi Herzliya</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,6 +1709,90 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-12-2024 17:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>STATE CUP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bnei Sakhnin - Ironi Modi'in</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>26-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Burundi - Uganda</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27-12-2024 14:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INDIAN SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mohammedan - Odisha</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,225 +691,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 11:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>AZADEGAN LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bromley - Newport County</t>
+          <t>Naft Masjed Soleyman - Niroye Zamini</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PERSIAN GULF PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tamworth - Forest Green</t>
+          <t>Shams Azar Qazvin - Gol Gohar</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-12-2024 14:00</t>
+          <t>28-12-2024 14:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>GULF CUP OF NATIONS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Reggiana - Juve Stabia</t>
+          <t>Bahrain - Yemen</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ALGERIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Témouchent - WA Mostaganem</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>National Bank Of Egypt - Ceramica Cleopatra</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Eastbourne Borough - Salisbury</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>60</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sholing - Wimborne Town</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IRAN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PERSIAN GULF PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Shams Azar Qazvin - Gol Gohar</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,40 +826,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-12-2024 17:30</t>
+          <t>27-12-2024 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>AFF CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derby - West Brom</t>
+          <t>Philippines - Thailand</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1009,266 +869,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Oxford United - Cardiff</t>
+          <t>Partick - Queen's Park</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>28-12-2024 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>STATE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Preston - Hull City</t>
+          <t>Maccabi Tel Aviv - Hapoel Katamon</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Aldershot Town - Woking</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Gateshead - Hartlepool</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tamworth - Forest Green</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Enfield Town - Boreham Wood</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>90</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Weymouth - Torquay</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Crusaders FC - Cliftonville FC</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>26-12-2024 14:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Aberystwyth Town - Bala Town</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>AFF CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Philippines - Thailand</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,156 +971,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dundee - Ross County</t>
+          <t>Maccabi K. Ata Bialik - Maccabi Nujeidat Ahmed</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>STATE CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gateshead - Hartlepool</t>
+          <t>Hapoel Afula - Ashdod</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>27-12-2024 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>STATE CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radcliffe - Chorley</t>
+          <t>Hapoel Ramat HaSharon - Maccabi Herzliya</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>76.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>53.3</v>
+        <v>61.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kettering Town - Biggleswade Town</t>
+          <t>Dumbarton - Kelty Hearts</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>93.3</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Crusaders FC - Cliftonville FC</t>
+          <t>Spartans - Edinburgh City</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1494,112 +1132,44 @@
         <v>1.91</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>46.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-12-2024 12:00</t>
+          <t>28-12-2024 06:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maccabi K. Ata Bialik - Maccabi Nujeidat Ahmed</t>
+          <t>Central Coast Mariners - Auckland</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>53.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27-12-2024 12:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>STATE CUP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Hapoel Afula - Ashdod</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>75</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>70</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27-12-2024 12:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>STATE CUP</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Hapoel Ramat HaSharon - Maccabi Herzliya</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,140 +1226,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-12-2024 13:00</t>
+          <t>27-12-2024 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowers &amp; Pitsea - Hashtag United</t>
+          <t>Mohammedan - Odisha</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Hastings United - Dover</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>26-12-2024 17:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>STATE CUP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bnei Sakhnin - Ironi Modi'in</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Burundi - Uganda</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>INDIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>INDIAN SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mohammedan - Odisha</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,25 +482,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Watford - Portsmouth</t>
+          <t>Reading - Mansfield Town</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-12-2024 15:00</t>
+          <t>29-12-2024 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,126 +515,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Huddersfield - Stockport County</t>
+          <t>Rotherham - Stockport County</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>26-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Dagenham &amp; Redbridge - Braintree</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-12-2024 17:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Oldham - York</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ALGERIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GC Mascara - Oued Sly</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-12-2024 13:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Stockton Town - Hebburn Town</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.77</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +579,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-12-2024 11:30</t>
+          <t>28-12-2024 11:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -706,70 +594,98 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Naft Masjed Soleyman - Niroye Zamini</t>
+          <t>Naft Gachsaran - Mes Soongoun</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27-12-2024 13:00</t>
+          <t>28-12-2024 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PERSIAN GULF PRO LEAGUE</t>
+          <t>GULF CUP OF NATIONS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin - Gol Gohar</t>
+          <t>Bahrain - Yemen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-12-2024 14:30</t>
+          <t>29-12-2024 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GULF CUP OF NATIONS</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bahrain - Yemen</t>
+          <t>Bari - Spezia</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75</v>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>29-12-2024 12:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAMEROON</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELITE ONE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bamboutos - Fauve Azur Elite</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,85 +742,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-12-2024 13:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AFF CHAMPIONSHIP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Philippines - Thailand</t>
+          <t>Partick - Queen's Park</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>28-12-2024 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>STATE CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Partick - Queen's Park</t>
+          <t>Maccabi Tel Aviv - Hapoel Katamon</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-12-2024 18:00</t>
+          <t>28-12-2024 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STATE CUP</t>
+          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - Hapoel Katamon</t>
+          <t>Cameroon - Central African Republic</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28-12-2024 16:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nigeria - Ghana</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>29-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Exeter City - Crawley Town</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>80</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.77</v>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>29-12-2024 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Motherwell - Rangers</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29-12-2024 15:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rio Ave - Nacional</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,205 +999,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-12-2024 12:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maccabi K. Ata Bialik - Maccabi Nujeidat Ahmed</t>
+          <t>Dumbarton - Kelty Hearts</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>27-12-2024 12:00</t>
+          <t>28-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STATE CUP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hapoel Afula - Ashdod</t>
+          <t>Spartans - Edinburgh City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>46.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-12-2024 12:00</t>
+          <t>28-12-2024 06:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STATE CUP</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hapoel Ramat HaSharon - Maccabi Herzliya</t>
+          <t>Central Coast Mariners - Auckland</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.3</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>61.3</v>
+        <v>53.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dumbarton - Kelty Hearts</t>
+          <t>Oxford United - Plymouth</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Spartans - Edinburgh City</t>
+          <t>Exeter City - Crawley Town</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>46.7</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>28-12-2024 06:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AUSTRALIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Central Coast Mariners - Auckland</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-12-2024 15:00</t>
+          <t>29-12-2024 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,20 +487,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Reading - Mansfield Town</t>
+          <t>Rotherham - Stockport County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-12-2024 12:30</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,19 +510,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rotherham - Stockport County</t>
+          <t>Bradford - Chesterfield</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>29-12-2024 18:15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>STATE CUP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiryat Yam SC - Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,22 +607,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-12-2024 11:30</t>
+          <t>29-12-2024 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AZADEGAN LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Naft Gachsaran - Mes Soongoun</t>
+          <t>Bari - Spezia</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -607,85 +635,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-12-2024 14:30</t>
+          <t>29-12-2024 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>CAMEROON</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GULF CUP OF NATIONS</t>
+          <t>ELITE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bahrain - Yemen</t>
+          <t>Bamboutos - Fauve Azur Elite</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>29-12-2024 14:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Bari - Spezia</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>29-12-2024 12:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CAMEROON</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ELITE ONE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Bamboutos - Fauve Azur Elite</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,26 +714,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Partick - Queen's Park</t>
+          <t>Exeter City - Crawley Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
@@ -770,168 +742,56 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-12-2024 18:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STATE CUP</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv - Hapoel Katamon</t>
+          <t>Motherwell - Rangers</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-12-2024 16:00</t>
+          <t>29-12-2024 15:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cameroon - Central African Republic</t>
+          <t>Rio Ave - Nacional</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>28-12-2024 16:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AFRICAN NATIONS CHAMPIONSHIP - QUALIFICATION</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nigeria - Ghana</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Exeter City - Crawley Town</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Motherwell - Rangers</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PRIMEIRA LIGA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rio Ave - Nacional</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F8" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -946,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,171 +859,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dumbarton - Kelty Hearts</t>
+          <t>Oxford United - Plymouth</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>28-12-2024 15:00</t>
+          <t>29-12-2024 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spartans - Edinburgh City</t>
+          <t>Exeter City - Crawley Town</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>46.7</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-12-2024 06:00</t>
+          <t>30-12-2024 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Central Coast Mariners - Auckland</t>
+          <t>Loughgall - Coleraine FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>53.3</v>
+        <v>62.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Oxford United - Plymouth</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Exeter City - Crawley Town</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,57 +607,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-12-2024 14:00</t>
+          <t>30-12-2024 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bari - Spezia</t>
+          <t>Botafogo PB - Serra Branca</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>29-12-2024 12:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CAMEROON</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ELITE ONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bamboutos - Fauve Azur Elite</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,102 +831,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-12-2024 15:00</t>
+          <t>30-12-2024 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Oxford United - Plymouth</t>
+          <t>Loughgall - Coleraine FC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>29-12-2024 15:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LEAGUE ONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Exeter City - Crawley Town</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30-12-2024 19:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Loughgall - Coleraine FC</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G4" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="H4" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-12-2024 12:30</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,25 +482,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rotherham - Stockport County</t>
+          <t>Luton - Norwich</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-12-2024 15:00</t>
+          <t>01-01-2025 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,47 +510,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bradford - Chesterfield</t>
+          <t>Oxford City - Brackley Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-12-2024 18:15</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>STATE CUP</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kiryat Yam SC - Beitar Jerusalem</t>
+          <t>Hashtag United - Billericay Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lancaster City - Mickleover Sports</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Whitby Town - Stockton Town</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Halesowen Town - Bromsgrove Sporting</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,29 +691,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-12-2024 14:00</t>
+          <t>31-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botafogo PB - Serra Branca</t>
+          <t>Scunthorpe - King's Lynn Town</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Scarborough Athletic - Spennymoor Town</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cray Wanderers - Dulwich Hamlet</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Spalding United - St Ives Town</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +854,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29-12-2024 15:00</t>
+          <t>31-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -696,75 +864,159 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Exeter City - Crawley Town</t>
+          <t>Solihull Moors - Tamworth</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>29-12-2024 15:00</t>
+          <t>01-01-2025 17:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Motherwell - Rangers</t>
+          <t>Brentford - Arsenal</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-12-2024 15:30</t>
+          <t>01-01-2025 17:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rio Ave - Nacional</t>
+          <t>Hull City - Middlesbrough</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sunderland - Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Port Vale - Cheltenham</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Weston-super-Mare - Chippenham Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,36 +1083,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30-12-2024 19:45</t>
+          <t>31-12-2024 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Loughgall - Coleraine FC</t>
+          <t>Solihull Moors - Tamworth</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31-12-2024 08:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners - Melbourne City</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.73</v>
       </c>
-      <c r="G2" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rochdale - Altrincham</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>York - Gateshead</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Chorley - Buxton</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Oxford City - Brackley Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>South Shields - Darlington 1883</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.88</v>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Halesowen Town - Bromsgrove Sporting</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-12-2024 15:00</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -706,14 +706,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scunthorpe - King's Lynn Town</t>
+          <t>Scarborough Athletic - Spennymoor Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -729,19 +729,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Spennymoor Town</t>
+          <t>Cray Wanderers - Dulwich Hamlet</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -757,46 +757,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cray Wanderers - Dulwich Hamlet</t>
+          <t>Spalding United - St Ives Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Spalding United - St Ives Town</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
         <v>3.45</v>
       </c>
     </row>
@@ -811,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,7 +826,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-12-2024 15:00</t>
+          <t>01-01-2025 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -864,16 +836,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Solihull Moors - Tamworth</t>
+          <t>Brentford - Arsenal</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
@@ -892,25 +864,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brentford - Arsenal</t>
+          <t>Hull City - Middlesbrough</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-01-2025 17:30</t>
+          <t>01-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -925,20 +897,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hull City - Middlesbrough</t>
+          <t>Sunderland - Sheffield Utd</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-01-2025 20:00</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -948,19 +920,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sunderland - Sheffield Utd</t>
+          <t>Port Vale - Cheltenham</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
@@ -976,46 +948,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Port Vale - Cheltenham</t>
+          <t>Weston-super-Mare - Chippenham Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Weston-super-Mare - Chippenham Town</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>75</v>
-      </c>
-      <c r="F7" t="n">
         <v>1.75</v>
       </c>
     </row>
@@ -1030,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,7 +1027,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31-12-2024 15:00</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1098,54 +1042,54 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Solihull Moors - Tamworth</t>
+          <t>Rochdale - Altrincham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>33.3</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-12-2024 08:00</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Central Coast Mariners - Melbourne City</t>
+          <t>York - Gateshead</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -1161,31 +1105,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Chorley - Buxton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>01-01-2025 13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1195,25 +1139,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>York - Gateshead</t>
+          <t>Oxford City - Brackley Town</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -1234,26 +1178,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chorley - Buxton</t>
+          <t>South Shields - Darlington 1883</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-01-2025 13:00</t>
+          <t>01-01-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1263,92 +1207,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Oxford City - Brackley Town</t>
+          <t>Halesowen Town - Bromsgrove Sporting</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>South Shields - Darlington 1883</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Halesowen Town - Bromsgrove Sporting</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G9" t="n">
         <v>35</v>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,169 +472,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Luton - Norwich</t>
+          <t>AEK Larnaca - Omonia Nicosia</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>01-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Oxford City - Brackley Town</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hashtag United - Billericay Town</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Lancaster City - Mickleover Sports</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Whitby Town - Stockton Town</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Halesowen Town - Bromsgrove Sporting</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -691,85 +551,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE NATIONALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Scarborough Athletic - Spennymoor Town</t>
+          <t>MO Bejaia - Khroub</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TRINIDAD-AND-TOBAGO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cray Wanderers - Dulwich Hamlet</t>
+          <t>Prison Service - San Juan Jabloteh</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Spalding United - St Ives Town</t>
+          <t>CR Belouizdad - Al Ahly</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,26 +686,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-01-2025 17:30</t>
+          <t>03-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brentford - Arsenal</t>
+          <t>Nice - Rennes</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>
@@ -854,113 +714,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-01-2025 17:30</t>
+          <t>03-01-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hull City - Middlesbrough</t>
+          <t>Rodez - RED Star FC 93</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-01-2025 20:00</t>
+          <t>03-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sunderland - Sheffield Utd</t>
+          <t>Racing Ferrol - Rayo Vallecano</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LEAGUE TWO</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Port Vale - Cheltenham</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Weston-super-Mare - Chippenham Town</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,97 +831,97 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rochdale - Altrincham</t>
+          <t>Rodez - RED Star FC 93</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SUPER CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>York - Gateshead</t>
+          <t>Juventus - AC Milan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
         <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-01-2025 15:00</t>
+          <t>03-01-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chorley - Buxton</t>
+          <t>Rizespor - Besiktas</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
         <v>50</v>
@@ -1129,102 +933,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-01-2025 13:00</t>
+          <t>03-01-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Oxford City - Brackley Town</t>
+          <t>Alanyaspor - Konyaspor</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>South Shields - Darlington 1883</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>65</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>01-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Halesowen Town - Bromsgrove Sporting</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>35</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1280,29 +1018,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-12-2024 14:00</t>
+          <t>03-01-2025 10:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mohammedan - Odisha</t>
+          <t>Perth Glory - Western United</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-01-2025 18:15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SÃO PAULO YOUTH CUP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CRB U20 - Água Santa U20</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>03-01-2025 17:30</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>CYPRUS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>1. DIVISION</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>AEK Larnaca - Omonia Nicosia</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>80</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Preston - Oxford United</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Metz - PAU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Partick - Dunfermline</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FA TROPHY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gainsborough Trinity - York</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Lusitânia Lourosa - Amarante</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Al-Hazm - Al Bukayriyah</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-01-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nakhon Si Thammarat - Police Tero</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük - Pendikspor</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Samsunspor - Trabzonspor</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +831,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 14:00</t>
+          <t>03-01-2025 13:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -566,70 +846,182 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MO Bejaia - Khroub</t>
+          <t>IRB El Kerma - ASO Chlef</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 23:00</t>
+          <t>03-01-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRINIDAD-AND-TOBAGO</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>COUPE NATIONALE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prison Service - San Juan Jabloteh</t>
+          <t>MO Bejaia - Khroub</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-01-2025 19:00</t>
+          <t>03-01-2025 12:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CR Belouizdad - Al Ahly</t>
+          <t>El Geish - El Olympi</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>03-01-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRINIDAD-AND-TOBAGO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prison Service - San Juan Jabloteh</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CR Belouizdad - Al Ahly</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Laval - Lorient</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CUP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ismaily SC - Tanta SC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +1157,342 @@
       </c>
       <c r="F4" t="n">
         <v>2.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Swansea - West Brom</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LEAGUE ONE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Exeter City - Bolton</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-01-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Lille - Nantes</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SERIE A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Venezia - Empoli</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>East Fife - Forfar Athletic</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FA TROPHY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Chertsey Town</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Truro City - AFC Hornchurch</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>04-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Crotone - Cavese</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Portimonense - Alverca</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>88</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>04-01-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nakhon Si Thammarat - Police Tero</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Phrae United - Lampang FC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-01-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Adana Demirspor - Istanbul Basaksehir</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,69 +1593,69 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 19:00</t>
+          <t>03-01-2025 18:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUPER CUP</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juventus - AC Milan</t>
+          <t>CRB U20 - Água Santa U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-01-2025 17:00</t>
+          <t>03-01-2025 19:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>SUPER CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rizespor - Besiktas</t>
+          <t>Juventus - AC Milan</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -948,20 +1676,190 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alanyaspor - Konyaspor</t>
+          <t>Rizespor - Besiktas</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>03-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alanyaspor - Konyaspor</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
         <v>2.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>45</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FA TROPHY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Chertsey Town</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>INDIAN SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jamshedpur - Bengaluru</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>04-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Crotone - Cavese</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>04-01-2025 11:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nakhon Si Thammarat - Police Tero</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1941,34 @@
         <v>1.83</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Blackburn - Burnley</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,141 +472,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 18:15</t>
+          <t>04-01-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CRB U20 - Água Santa U20</t>
+          <t>Metz - PAU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 17:30</t>
+          <t>04-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AEK Larnaca - Omonia Nicosia</t>
+          <t>Partick - Dunfermline</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>04-01-2025 15:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Preston - Oxford United</t>
+          <t>Nacional SP U20 - Canaã U20</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01-2025 13:00</t>
+          <t>04-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>FA TROPHY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Metz - PAU</t>
+          <t>Gainsborough Trinity - York</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>GAMBIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>GFA LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Partick - Dunfermline</t>
+          <t>Brikama United - BST Galaxy</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
@@ -617,114 +617,114 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FA TROPHY</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gainsborough Trinity - York</t>
+          <t>Lusitânia Lourosa - Amarante</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>04-01-2025 12:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lusitânia Lourosa - Amarante</t>
+          <t>Al-Hazm - Al Bukayriyah</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-01-2025 12:30</t>
+          <t>04-01-2025 11:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Hazm - Al Bukayriyah</t>
+          <t>Nakhon Si Thammarat - Police Tero</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-01-2025 11:30</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
+          <t>Fatih Karagümrük - Pendikspor</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>04-01-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -734,47 +734,75 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük - Pendikspor</t>
+          <t>Samsunspor - Trabzonspor</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01-2025 17:00</t>
+          <t>05-01-2025 20:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Samsunspor - Trabzonspor</t>
+          <t>Estrela - Estoril</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>COPA DEL REY</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ourense CF - Valladolid</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.33</v>
       </c>
     </row>
   </sheetData>
@@ -788,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -831,63 +859,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 13:30</t>
+          <t>04-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COUPE NATIONALE</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IRB El Kerma - ASO Chlef</t>
+          <t>Laval - Lorient</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 14:00</t>
+          <t>04-01-2025 22:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COUPE NATIONALE</t>
+          <t>COPA DO NORDESTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MO Bejaia - Khroub</t>
+          <t>Botafogo PB - Maranhão</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-01-2025 12:30</t>
+          <t>04-01-2025 12:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -902,126 +930,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>El Geish - El Olympi</t>
+          <t>Ismaily SC - Tanta SC</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-01-2025 23:00</t>
+          <t>05-01-2025 08:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRINIDAD-AND-TOBAGO</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prison Service - San Juan Jabloteh</t>
+          <t>Nusantara United - Bhayangkara FC</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>03-01-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CR Belouizdad - Al Ahly</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04-01-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Laval - Lorient</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>60</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CUP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ismaily SC - Tanta SC</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,54 +1022,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 20:00</t>
+          <t>04-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nice - Rennes</t>
+          <t>Swansea - West Brom</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 19:00</t>
+          <t>04-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rodez - RED Star FC 93</t>
+          <t>Exeter City - Bolton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>84.5</v>
       </c>
       <c r="F3" t="n">
         <v>1.7</v>
@@ -1134,57 +1078,57 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-01-2025 18:00</t>
+          <t>04-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Racing Ferrol - Rayo Vallecano</t>
+          <t>Lille - Nantes</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01-2025 12:30</t>
+          <t>04-01-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Swansea - West Brom</t>
+          <t>Venezia - Empoli</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76.7</v>
+        <v>77.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
@@ -1195,80 +1139,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Exeter City - Bolton</t>
+          <t>East Fife - Forfar Athletic</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84.5</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-01-2025 18:00</t>
+          <t>04-01-2025 18:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Lille - Nantes</t>
+          <t>ABC U20 - Novorizontino U20</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>04-01-2025 18:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Venezia - Empoli</t>
+          <t>Goiás U20 - Inter De Minas U20</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>77.5</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
@@ -1279,21 +1223,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>FA TROPHY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>East Fife - Forfar Athletic</t>
+          <t>Aldershot Town - Chertsey Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>1.73</v>
@@ -1312,109 +1256,109 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FA TROPHY</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aldershot Town - Chertsey Town</t>
+          <t>Truro City - AFC Hornchurch</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>04-01-2025 14:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Truro City - AFC Hornchurch</t>
+          <t>Crotone - Cavese</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>04-01-2025 11:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Crotone - Cavese</t>
+          <t>Portimonense - Alverca</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04-01-2025 11:00</t>
+          <t>04-01-2025 11:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Portimonense - Alverca</t>
+          <t>Nakhon Si Thammarat - Police Tero</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04-01-2025 11:30</t>
+          <t>04-01-2025 12:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1429,70 +1373,294 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
+          <t>Phrae United - Lampang FC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>82.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-01-2025 12:00</t>
+          <t>04-01-2025 10:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Phrae United - Lampang FC</t>
+          <t>Adana Demirspor - Istanbul Basaksehir</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>82.2</v>
+        <v>83.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-01-2025 10:30</t>
+          <t>05-01-2025 14:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Adana Demirspor - Istanbul Basaksehir</t>
+          <t>Fulham - Ipswich</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>83.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>05-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Angers - Stade Brestois 29</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Motherwell - Aberdeen</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05-01-2025 00:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SÃO PAULO YOUTH CUP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Corinthians U20 - Porto Velho EC U20</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Padova - Caldiero Terme</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Giugliano - Avellino</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LIGA 3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fafe - SC Braga B</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LIGA 3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital - CF Os Belenenses</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1. LIG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Adanaspor - Amed</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>88</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -1559,177 +1727,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 19:00</t>
+          <t>04-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rodez - RED Star FC 93</t>
+          <t>Taubaté U20 - Marcilio Dias U20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>03-01-2025 18:15</t>
+          <t>04-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>FA TROPHY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CRB U20 - Água Santa U20</t>
+          <t>Aldershot Town - Chertsey Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03-01-2025 19:00</t>
+          <t>04-01-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUPER CUP</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juventus - AC Milan</t>
+          <t>Jamshedpur - Bengaluru</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03-01-2025 17:00</t>
+          <t>04-01-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rizespor - Besiktas</t>
+          <t>Crotone - Cavese</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-01-2025 17:00</t>
+          <t>04-01-2025 11:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alanyaspor - Konyaspor</t>
+          <t>Nakhon Si Thammarat - Police Tero</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>53.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1739,46 +1907,46 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FA TROPHY</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Aldershot Town - Chertsey Town</t>
+          <t>Fulham - Ipswich</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 08:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jamshedpur - Bengaluru</t>
+          <t>Persela Lamongan - Persipal</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1788,16 +1956,16 @@
         <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>46.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 16:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1812,54 +1980,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crotone - Cavese</t>
+          <t>Giugliano - Avellino</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
         <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-01-2025 11:30</t>
+          <t>05-01-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
+          <t>Atlético CP - Academica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>53.3</v>
+        <v>37.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,57 +2084,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03-01-2025 10:45</t>
+          <t>04-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Perth Glory - Western United</t>
+          <t>Blackburn - Burnley</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>04-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blackburn - Burnley</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,337 +472,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01-2025 13:00</t>
+          <t>05-01-2025 20:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>PRIMEIRA LIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Metz - PAU</t>
+          <t>Estrela - Estoril</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 11:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Partick - Dunfermline</t>
+          <t>Ourense CF - Valladolid</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01-2025 15:45</t>
+          <t>06-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nacional SP U20 - Canaã U20</t>
+          <t>QPR - Luton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FA TROPHY</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gainsborough Trinity - York</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>04-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GAMBIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GFA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Brikama United - BST Galaxy</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>04-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lusitânia Lourosa - Amarante</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>04-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Al-Hazm - Al Bukayriyah</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>04-01-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>04-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fatih Karagümrük - Pendikspor</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04-01-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Samsunspor - Trabzonspor</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05-01-2025 20:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PRIMEIRA LIGA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Estrela - Estoril</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>COPA DEL REY</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Ourense CF - Valladolid</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,113 +607,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01-2025 19:00</t>
+          <t>05-01-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Laval - Lorient</t>
+          <t>Floresta CE U20 - Botafogo U20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01-2025 22:30</t>
+          <t>05-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GAMBIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DO NORDESTE</t>
+          <t>GFA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botafogo PB - Maranhão</t>
+          <t>Greater Tomorrow - Hawks</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01-2025 12:30</t>
+          <t>05-01-2025 08:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ismaily SC - Tanta SC</t>
+          <t>Nusantara United - Bhayangkara FC</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-01-2025 08:00</t>
+          <t>05-01-2025 12:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA 2</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nusantara United - Bhayangkara FC</t>
+          <t>Gulf United - Masfut</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ASEC Mimosas - USM Alger</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,7 +798,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01-2025 12:30</t>
+          <t>05-01-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1032,16 +808,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Swansea - West Brom</t>
+          <t>Fulham - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
@@ -1050,138 +826,138 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Exeter City - Bolton</t>
+          <t>Angers - Stade Brestois 29</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84.5</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01-2025 18:00</t>
+          <t>05-01-2025 14:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lille - Nantes</t>
+          <t>Motherwell - Aberdeen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 07:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>HONG-KONG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Venezia - Empoli</t>
+          <t>North District - Rangers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 16:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>East Fife - Forfar Athletic</t>
+          <t>Padova - Caldiero Terme</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04-01-2025 18:15</t>
+          <t>05-01-2025 16:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ABC U20 - Novorizontino U20</t>
+          <t>Giugliano - Avellino</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>96.7</v>
       </c>
       <c r="F7" t="n">
         <v>1.85</v>
@@ -1190,476 +966,112 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-01-2025 18:15</t>
+          <t>05-01-2025 14:15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Goiás U20 - Inter De Minas U20</t>
+          <t>Marsaxlokk - Hamrun Spartans</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 15:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FA TROPHY</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aldershot Town - Chertsey Town</t>
+          <t>Fafe - SC Braga B</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>75.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Truro City - AFC Hornchurch</t>
+          <t>Oliveira Hospital - CF Os Belenenses</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>96.7</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Crotone - Cavese</t>
+          <t>Adanaspor - Amed</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F11" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>04-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Portimonense - Alverca</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>88</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>04-01-2025 11:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>04-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Phrae United - Lampang FC</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>82.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>04-01-2025 10:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SÜPER LIG</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Adana Demirspor - Istanbul Basaksehir</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fulham - Ipswich</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Angers - Stade Brestois 29</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>75</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Motherwell - Aberdeen</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>05-01-2025 00:30</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SÃO PAULO YOUTH CUP</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Corinthians U20 - Porto Velho EC U20</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Padova - Caldiero Terme</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>80</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Giugliano - Avellino</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fafe - SC Braga B</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital - CF Os Belenenses</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Adanaspor - Amed</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>88</v>
-      </c>
-      <c r="F24" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -1674,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,90 +1139,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01-2025 16:00</t>
+          <t>05-01-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Taubaté U20 - Marcilio Dias U20</t>
+          <t>Fulham - Ipswich</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-01-2025 15:00</t>
+          <t>05-01-2025 22:15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FA TROPHY</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aldershot Town - Chertsey Town</t>
+          <t>São Carlos U20 - Real Brasília U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>46.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 08:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jamshedpur - Bengaluru</t>
+          <t>Persela Lamongan - Persipal</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1820,16 +1232,16 @@
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>45</v>
+        <v>46.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-01-2025 14:00</t>
+          <t>05-01-2025 16:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1844,190 +1256,88 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crotone - Cavese</t>
+          <t>Giugliano - Avellino</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>95</v>
       </c>
       <c r="F5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-01-2025 11:30</t>
+          <t>05-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nakhon Si Thammarat - Police Tero</t>
+          <t>Atlético CP - Academica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>53.3</v>
+        <v>37.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05-01-2025 14:00</t>
+          <t>05-01-2025 12:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fulham - Ipswich</t>
+          <t>Gulf United - Masfut</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05-01-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIGA 2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Persela Lamongan - Persipal</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G8" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Giugliano - Avellino</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>95</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>60</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Atlético CP - Academica</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>85</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2084,29 +1394,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-01-2025 12:30</t>
+          <t>05-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Blackburn - Burnley</t>
+          <t>Flamengo U20 - Cruzeiro Itaporanga U20</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAMEROON</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ELITE ONE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fauve Azur Elite - Victoria United</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>73.3</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.2</v>
+      <c r="F3" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>05-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS Sfaxien - Simba</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,85 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-01-2025 20:30</t>
+          <t>06-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Estrela - Estoril</t>
+          <t>QPR - Luton</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-01-2025 11:00</t>
+          <t>06-01-2025 22:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ourense CF - Valladolid</t>
+          <t>Jaciobá U20 - Santos U20</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>4.33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-01-2025 20:00</t>
+          <t>06-01-2025 12:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>QPR - Luton</t>
+          <t>Al Najma - Abha</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06-01-2025 14:40</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Al Jubail - Ohod</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,141 +635,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-01-2025 22:00</t>
+          <t>07-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Floresta CE U20 - Botafogo U20</t>
+          <t>Wycombe - Huddersfield</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GAMBIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GFA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Greater Tomorrow - Hawks</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-01-2025 08:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIGA 2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nusantara United - Bhayangkara FC</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05-01-2025 12:55</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>UNITED-ARAB-EMIRATES</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gulf United - Masfut</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CAF CONFEDERATION CUP</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ASEC Mimosas - USM Alger</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,280 +714,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-01-2025 14:00</t>
+          <t>06-01-2025 21:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fulham - Ipswich</t>
+          <t>Juventude U20 - América RN U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-01-2025 14:00</t>
+          <t>06-01-2025 14:40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Angers - Stade Brestois 29</t>
+          <t>Al Jubail - Ohod</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SCOTLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Motherwell - Aberdeen</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05-01-2025 07:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HONG-KONG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>North District - Rangers</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Padova - Caldiero Terme</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Giugliano - Avellino</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:15</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MALTA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Marsaxlokk - Hamrun Spartans</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fafe - SC Braga B</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital - CF Os Belenenses</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Adanaspor - Amed</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>88</v>
-      </c>
-      <c r="F11" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -1351,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1394,85 +1086,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-01-2025 20:00</t>
+          <t>07-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>LEAGUE CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Flamengo U20 - Cruzeiro Itaporanga U20</t>
+          <t>Ballymena United - Glentoran</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05-01-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CAMEROON</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ELITE ONE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fauve Azur Elite - Victoria United</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CAF CONFEDERATION CUP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CS Sfaxien - Simba</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-01-2025 20:00</t>
+          <t>07-01-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,103 +482,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>QPR - Luton</t>
+          <t>AFC Bournemouth U21 - Bristol City U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06-01-2025 22:30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SÃO PAULO YOUTH CUP</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Jaciobá U20 - Santos U20</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>06-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Al Najma - Abha</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06-01-2025 14:40</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Al Jubail - Ohod</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +574,34 @@
       </c>
       <c r="F2" t="n">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EFL TROPHY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Port Vale - Wrexham</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-01-2025 19:45</t>
+          <t>09-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -561,47 +561,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wycombe - Huddersfield</t>
+          <t>Fulham - Watford</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07-01-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EFL TROPHY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Port Vale - Wrexham</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,57 +630,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-01-2025 21:15</t>
+          <t>09-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventude U20 - América RN U20</t>
+          <t>Fulham - Watford</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06-01-2025 14:40</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Al Jubail - Ohod</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,29 +719,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-01-2025 14:00</t>
+          <t>09-01-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fulham - Ipswich</t>
+          <t>Mirassol U20 - Criciuma U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
@@ -809,171 +753,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05-01-2025 22:15</t>
+          <t>09-01-2025 12:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>São Carlos U20 - Real Brasília U20</t>
+          <t>La Viena FC - Suez</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="G3" t="n">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-01-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIGA 2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Persela Lamongan - Persipal</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G4" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Giugliano - Avellino</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>95</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>LIGA 3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Atlético CP - Academica</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05-01-2025 12:55</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>UNITED-ARAB-EMIRATES</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Gulf United - Masfut</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G7" t="n">
-        <v>65</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,29 +472,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-01-2025 13:00</t>
+          <t>09-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AFC Bournemouth U21 - Bristol City U21</t>
+          <t>São José PA U20 - Retrô U20</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIGA REVELAÇÃO U23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Academico Viseu U23 - Sporting Braga U23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>73.3</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.25</v>
+      <c r="F3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Granada CF - Burgos</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -508,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +630,90 @@
       </c>
       <c r="F2" t="n">
         <v>5.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Auxerre - Lille</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>El Geish - Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Dijon - Chateauroux</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +793,118 @@
       </c>
       <c r="F2" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09-01-2025 18:15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SÃO PAULO YOUTH CUP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tupã U20 - CRB U20</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Den Bosch - Jong Utrecht</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Valenciennes - Gobelins</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lucchese - Spal</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +971,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 00:00</t>
+          <t>09-01-2025 18:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -734,20 +986,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mirassol U20 - Criciuma U20</t>
+          <t>Tupã U20 - CRB U20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="3">
@@ -782,6 +1034,74 @@
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Hamilton Academical - Partick</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Karlsruher SC - Servette FC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,29 +1158,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-01-2025 19:45</t>
+          <t>09-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LEAGUE CUP</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ballymena United - Glentoran</t>
+          <t>Botafogo SP U20 - Tuna Luso PA U20</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09-01-2025 18:15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SÃO PAULO YOUTH CUP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Comercial De Tietê U20 - América RN U20</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Martigues - Clermont Foot</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 16:00</t>
+          <t>10-01-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,14 +487,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>São José PA U20 - Retrô U20</t>
+          <t>Itapirense U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -528,29 +528,225 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 19:30</t>
+          <t>10-01-2025 12:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Granada CF - Burgos</t>
+          <t>Al Jandal - Al-Hazm</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>80</v>
       </c>
       <c r="F4" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-01-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Granada CF - Burgos</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Southport - Leamington</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Chatham Town - Wingate &amp; Finchley</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Whitehawk - Hendon</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Plymouth Parkway - Swindon Supermarine</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Uthai Thani - Ratchaburi</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11-01-2025 12:45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WALES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town - Briton Ferry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -607,113 +803,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 19:45</t>
+          <t>10-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fulham - Watford</t>
+          <t>Auxerre - Lille</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-01-2025 20:00</t>
+          <t>10-01-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Auxerre - Lille</t>
+          <t>El Geish - Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 17:00</t>
+          <t>10-01-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>El Geish - Ceramica Cleopatra</t>
+          <t>Dijon - Chateauroux</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-01-2025 18:30</t>
+          <t>11-01-2025 17:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dijon - Chateauroux</t>
+          <t>Tenerife - Castellón</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,35 +966,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 19:45</t>
+          <t>10-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fulham - Watford</t>
+          <t>Den Bosch - Jong Utrecht</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09-01-2025 18:15</t>
+          <t>10-01-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -813,7 +1009,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tupã U20 - CRB U20</t>
+          <t>Itapirense U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -826,85 +1022,449 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 19:00</t>
+          <t>10-01-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Den Bosch - Jong Utrecht</t>
+          <t>Valenciennes - Gobelins</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-01-2025 18:30</t>
+          <t>10-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Valenciennes - Gobelins</t>
+          <t>Lucchese - Spal</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10-01-2025 19:30</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lucchese - Spal</t>
+          <t>Norwich - Brighton</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FA CUP</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sunderland - Stoke City</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LEAGUE TWO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Swindon Town - Crewe</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>86.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SC Freiburg - Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gateshead - Braintree</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Maidenhead - York</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yeovil Town - Woking</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11-01-2025 06:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PSBS Biak Numfor - Persib Bandung</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tepatitlán - Venados FC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gimnastic - Gimnástica Segoviana</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cultural Leonesa - Barcelona B</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Racing Ferrol - FC Cartagena</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Besiktas - BB Bodrumspor</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>11-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CAF CHAMPIONS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Maniema Union - Mamelodi Sundowns</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,103 +1531,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 18:15</t>
+          <t>10-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tupã U20 - CRB U20</t>
+          <t>Hamilton Academical - Partick</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09-01-2025 12:30</t>
+          <t>10-01-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La Viena FC - Suez</t>
+          <t>Itapirense U20 - Atlético GO U20</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
         <v>33.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 19:45</t>
+          <t>10-01-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Partick</t>
+          <t>Sonderjyske - Odense</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5">
@@ -1102,6 +1662,618 @@
       </c>
       <c r="H5" t="n">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aldershot Town - Solihull Moors</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gateshead - Braintree</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G7" t="n">
+        <v>65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Oldham - Eastleigh</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Hemel Hempstead Town - Slough Town</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Weymouth - Dorking Wanderers</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dartford - Chichester City</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Macclesfield - United Of Manchester</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bedford Town - AFC Telford United</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Halesowen Town - Royston Town</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>85</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Stratford Town - AFC Sudbury</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>80</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wimborne Town - Marlow</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11-01-2025 06:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INDONESIA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGA 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PSBS Biak Numfor - Persib Bandung</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Crusaders FC - Dungannon Swifts</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>11-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>QATAR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>STARS LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Al Ahli Doha - Al Wakrah</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>65</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11-01-2025 12:55</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ohod - Al Najma</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>80</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Real Madrid II - Alcoyano</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior - Muangthong United</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>11-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sukhothai FC - Khon Kaen United</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G23" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1158,85 +2330,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-01-2025 16:00</t>
+          <t>10-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botafogo SP U20 - Tuna Luso PA U20</t>
+          <t>Martigues - Clermont Foot</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09-01-2025 18:15</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Comercial De Tietê U20 - América RN U20</t>
+          <t>Carlisle - Milton Keynes Dons</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10-01-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Martigues - Clermont Foot</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,281 +472,337 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-01-2025 22:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Itapirense U20 - Atlético GO U20</t>
+          <t>Peterborough Sports - Farsley Celtic FC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-01-2025 15:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Academico Viseu U23 - Sporting Braga U23</t>
+          <t>Chatham Town - Wingate &amp; Finchley</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 12:30</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jandal - Al-Hazm</t>
+          <t>Plymouth Parkway - Swindon Supermarine</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-01-2025 19:30</t>
+          <t>11-01-2025 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Granada CF - Burgos</t>
+          <t>JDR Stars - Baroka FC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Southport - Leamington</t>
+          <t>Uthai Thani - Ratchaburi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75.7</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chatham Town - Wingate &amp; Finchley</t>
+          <t>Aberystwyth Town - Briton Ferry</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Whitehawk - Hendon</t>
+          <t>Wiener SC - SV Horn</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F8" t="n">
-        <v>2.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Plymouth Parkway - Swindon Supermarine</t>
+          <t>Liptovský Mikuláš - Ružomberok</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>71.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 12:00</t>
+          <t>11-01-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Uthai Thani - Ratchaburi</t>
+          <t>Koper - Tekstilac Odžaci</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-01-2025 12:45</t>
+          <t>11-01-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Aberystwyth Town - Briton Ferry</t>
+          <t>Universidad De Chile - Godoy Cruz</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12-01-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Groningen - Almere City FC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>70</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Alianza Lima - Emelec</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,113 +859,365 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-01-2025 20:00</t>
+          <t>11-01-2025 17:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Auxerre - Lille</t>
+          <t>Tenerife - Castellón</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>66.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-01-2025 17:00</t>
+          <t>12-01-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>El Geish - Ceramica Cleopatra</t>
+          <t>Cosenza - Mantova</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 18:30</t>
+          <t>12-01-2025 01:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dijon - Chateauroux</t>
+          <t>San Carlos - Deportivo Saprissa</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-01-2025 17:30</t>
+          <t>12-01-2025 11:15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Diagoras - Iraklis 1908</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Vis Pesaro - Legnago Salus</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ascoli - Virtus Entella</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tenerife - Castellón</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tarazona - Unionistas De Salamanca</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>73.3</v>
       </c>
-      <c r="F5" t="n">
-        <v>3</v>
+      <c r="F8" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yeclano - AD Ceuta FC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bergantiños - Guijuelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - UD Logroñés</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Orapa United - USM Alger</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jaraaf - ASEC Mimosas</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Enyimba - AL Masry</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>60</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,26 +1274,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-01-2025 19:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Den Bosch - Jong Utrecht</t>
+          <t>Norwich - Brighton</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>83.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.7</v>
@@ -994,85 +1302,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-01-2025 22:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Itapirense U20 - Atlético GO U20</t>
+          <t>Sunderland - Stoke City</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 18:30</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Valenciennes - Gobelins</t>
+          <t>Swindon Town - Crewe</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-01-2025 19:30</t>
+          <t>11-01-2025 14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lucchese - Spal</t>
+          <t>SC Freiburg - Holstein Kiel</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -1088,383 +1396,635 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Norwich - Brighton</t>
+          <t>Yeovil Town - Woking</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 06:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sunderland - Stoke City</t>
+          <t>PSBS Biak Numfor - Persib Bandung</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Swindon Town - Crewe</t>
+          <t>Al Arabi SC - Jeddah Club</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86.7</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-01-2025 14:30</t>
+          <t>11-01-2025 13:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>1ST DIVISION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SC Freiburg - Holstein Kiel</t>
+          <t>Upington City - Pretoria Callies</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 16:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Gimnastic - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maidenhead - York</t>
+          <t>Cultural Leonesa - Barcelona B</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 13:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yeovil Town - Woking</t>
+          <t>Racing Ferrol - FC Cartagena</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>76.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-01-2025 06:30</t>
+          <t>11-01-2025 12:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Persib Bandung</t>
+          <t>Marino - Lanzarote</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>75.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-01-2025 01:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tepatitlán - Venados FC</t>
+          <t>Phrae United - Bangkok</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>77.5</v>
+        <v>96</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-01-2025 16:30</t>
+          <t>11-01-2025 16:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SÜPER LIG</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gimnastic - Gimnástica Segoviana</t>
+          <t>Besiktas - BB Bodrumspor</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>11-01-2025 13:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>CAF CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cultural Leonesa - Barcelona B</t>
+          <t>Maniema Union - Mamelodi Sundowns</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>76.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 13:00</t>
+          <t>11-01-2025 10:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Racing Ferrol - FC Cartagena</t>
+          <t>Sigma Olomouc - FK Košice</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F17" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>12-01-2025 12:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Besiktas - BB Bodrumspor</t>
+          <t>Tamworth - Tottenham</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-01-2025 13:00</t>
+          <t>12-01-2025 12:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Maniema Union - Mamelodi Sundowns</t>
+          <t>Hull City - Doncaster</t>
         </is>
       </c>
       <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FA CUP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Crystal Palace - Stockport County</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>84</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12-01-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Feyenoord - Utrecht</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Brescia - Sampdoria</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cosenza - Mantova</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>84</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-01-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Perez Zeledon - Sporting San Jose</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>76.7</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F24" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Clodiense - Pergolettese</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Felgueiras 1932 - Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>76</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bergantiños - Guijuelo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - UD Logroñés</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +2038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,124 +2091,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-01-2025 19:45</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hamilton Academical - Partick</t>
+          <t>Aldershot Town - Solihull Moors</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10-01-2025 22:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SÃO PAULO YOUTH CUP</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Itapirense U20 - Atlético GO U20</t>
+          <t>Hemel Hempstead Town - Slough Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>93.3</v>
+        <v>77.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3</v>
+        <v>62.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-01-2025 12:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sonderjyske - Odense</t>
+          <t>Weymouth - Dorking Wanderers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10-01-2025 14:00</t>
+          <t>11-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Karlsruher SC - Servette FC</t>
+          <t>Dartford - Chichester City</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -1658,10 +2218,10 @@
         <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -1677,25 +2237,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Aldershot Town - Solihull Moors</t>
+          <t>Macclesfield - United Of Manchester</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
@@ -1711,25 +2271,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gateshead - Braintree</t>
+          <t>Bedford Town - AFC Telford United</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -1745,22 +2305,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Oldham - Eastleigh</t>
+          <t>Halesowen Town - Royston Town</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>77.5</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
@@ -1779,59 +2339,59 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - Slough Town</t>
+          <t>Wimborne Town - Marlow</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>77.5</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 06:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Weymouth - Dorking Wanderers</t>
+          <t>PSBS Biak Numfor - Persib Bandung</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11">
@@ -1842,438 +2402,506 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dartford - Chichester City</t>
+          <t>Crusaders FC - Dungannon Swifts</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="G11" t="n">
         <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 15:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>QATAR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>STARS LEAGUE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Macclesfield - United Of Manchester</t>
+          <t>Al Ahli Doha - Al Wakrah</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bedford Town - AFC Telford United</t>
+          <t>Al Arabi SC - Jeddah Club</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G13" t="n">
-        <v>66.7</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Halesowen Town - Royston Town</t>
+          <t>Ohod - Al Najma</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 18:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stratford Town - AFC Sudbury</t>
+          <t>Real Madrid II - Alcoyano</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>65</v>
+        <v>42.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 11:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wimborne Town - Marlow</t>
+          <t>Lamphun Warrior - Muangthong United</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H16" t="n">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-01-2025 06:30</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Persib Bandung</t>
+          <t>Sukhothai FC - Khon Kaen United</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>73.3</v>
+        <v>67.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Crusaders FC - Dungannon Swifts</t>
+          <t>Phrae United - Bangkok</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>75</v>
+        <v>93.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>60</v>
+        <v>46.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11-01-2025 15:30</t>
+          <t>11-01-2025 13:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QATAR</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STARS LEAGUE</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Al Ahli Doha - Al Wakrah</t>
+          <t>Paks - BVSC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="G19" t="n">
         <v>65</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11-01-2025 12:55</t>
+          <t>12-01-2025 16:15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Ohod - Al Najma</t>
+          <t>Montpellier - Angers</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="G20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H20" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11-01-2025 18:30</t>
+          <t>12-01-2025 13:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Madrid II - Alcoyano</t>
+          <t>Feyenoord - Utrecht</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="n">
-        <v>42.5</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-01-2025 11:00</t>
+          <t>12-01-2025 17:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>SUPER LEAGUE 1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lamphun Warrior - Muangthong United</t>
+          <t>PAOK - Volos NFC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="n">
         <v>65</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11-01-2025 12:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>CAMBODIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>C-LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sukhothai FC - Khon Kaen United</t>
+          <t>Life Sihanoukville - Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>67.5</v>
+        <v>86.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="G23" t="n">
-        <v>67.5</v>
+        <v>66.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-01-2025 03:05</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dorados - Mineros De Zacatecas</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Colonia Moscardó - CF Talavera</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,57 +2958,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-01-2025 19:00</t>
+          <t>11-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>2. DIVISION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Martigues - Clermont Foot</t>
+          <t>Halkanoras - Digenis Morphou</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>11-01-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Carlisle - Milton Keynes Dons</t>
+          <t>Phrae United - Bangkok</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11-01-2025 10:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Neuchatel Xamax FC - Biel-Bienne</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,337 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 13:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Peterborough Sports - Farsley Celtic FC</t>
+          <t>Groningen - Almere City FC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 21:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chatham Town - Wingate &amp; Finchley</t>
+          <t>Alianza Lima - Emelec</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>13-01-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Plymouth Parkway - Swindon Supermarine</t>
+          <t>Eldense - Eibar</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-01-2025 13:30</t>
+          <t>13-01-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1ST DIVISION</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JDR Stars - Baroka FC</t>
+          <t>Manisa BBSK - Ümraniyespor</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Uthai Thani - Ratchaburi</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:45</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WALES</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Aberystwyth Town - Briton Ferry</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Wiener SC - SV Horn</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Liptovský Mikuláš - Ružomberok</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Koper - Tekstilac Odžaci</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-01-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Universidad De Chile - Godoy Cruz</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>70</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>EREDIVISIE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Groningen - Almere City FC</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>70</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12-01-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Alianza Lima - Emelec</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>70</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,78 +635,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-01-2025 17:30</t>
+          <t>12-01-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tenerife - Castellón</t>
+          <t>Cosenza - Mantova</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-01-2025 14:00</t>
+          <t>12-01-2025 16:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cosenza - Mantova</t>
+          <t>Al Riffa - Sitra</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>62.3</v>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-01-2025 01:00</t>
+          <t>12-01-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>SÃO PAULO YOUTH CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>San Carlos - Deportivo Saprissa</t>
+          <t>Ferroviária U20 - Vitória U20</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -1027,54 +803,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-01-2025 16:30</t>
+          <t>12-01-2025 12:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>KENYA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tarazona - Unionistas De Salamanca</t>
+          <t>3K - Kibera Black Stars</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12-01-2025 11:00</t>
+          <t>12-01-2025 14:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>BOTOLA 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yeclano - AD Ceuta FC</t>
+          <t>Chabab Atl. Khenifra - Raja Beni Mellal</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
         <v>2.8</v>
@@ -1083,7 +859,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12-01-2025 15:00</t>
+          <t>12-01-2025 16:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1093,19 +869,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bergantiños - Guijuelo</t>
+          <t>Tarazona - Unionistas De Salamanca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="11">
@@ -1121,102 +897,214 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Zaragoza II - UD Logroñés</t>
+          <t>Yeclano - AD Ceuta FC</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-01-2025 13:00</t>
+          <t>12-01-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CAF CONFEDERATION CUP</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Orapa United - USM Alger</t>
+          <t>Bergantiños - Guijuelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-01-2025 16:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAF CONFEDERATION CUP</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jaraaf - ASEC Mimosas</t>
+          <t>Real Zaragoza II - UD Logroñés</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12-01-2025 16:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAF CONFEDERATION CUP</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Enyimba - AL Masry</t>
+          <t>El Palo - El Ejido</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>60</v>
       </c>
       <c r="F14" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TUNISIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EGS Gafsa - US Ben Guerdane</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orapa United - USM Alger</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jaraaf - ASEC Mimosas</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>70</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Enyimba - AL Masry</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
         <v>2.85</v>
       </c>
     </row>
@@ -1231,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,7 +1162,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1289,20 +1177,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Norwich - Brighton</t>
+          <t>Tamworth - Tottenham</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83.3</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1317,20 +1205,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sunderland - Stoke City</t>
+          <t>Hull City - Doncaster</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1340,16 +1228,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>FA CUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Swindon Town - Crewe</t>
+          <t>Crystal Palace - Stockport County</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
         <v>1.8</v>
@@ -1358,82 +1246,82 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-01-2025 14:30</t>
+          <t>12-01-2025 13:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SC Freiburg - Holstein Kiel</t>
+          <t>Feyenoord - Utrecht</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 18:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yeovil Town - Woking</t>
+          <t>Brescia - Sampdoria</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025 06:30</t>
+          <t>12-01-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PSBS Biak Numfor - Persib Bandung</t>
+          <t>Cosenza - Mantova</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
         <v>1.83</v>
@@ -1442,119 +1330,119 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-01-2025 12:35</t>
+          <t>12-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Arabi SC - Jeddah Club</t>
+          <t>Al Riffa - Sitra</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-01-2025 13:30</t>
+          <t>12-01-2025 21:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1ST DIVISION</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Upington City - Pretoria Callies</t>
+          <t>Perez Zeledon - Sporting San Jose</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11-01-2025 16:30</t>
+          <t>12-01-2025 16:30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gimnastic - Gimnástica Segoviana</t>
+          <t>Clodiense - Pergolettese</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>80</v>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cultural Leonesa - Barcelona B</t>
+          <t>Felgueiras 1932 - Pacos Ferreira</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11-01-2025 13:00</t>
+          <t>12-01-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1564,25 +1452,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Racing Ferrol - FC Cartagena</t>
+          <t>Bergantiños - Guijuelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-01-2025 12:30</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1592,439 +1480,75 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 12</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Marino - Lanzarote</t>
+          <t>Real Zaragoza II - UD Logroñés</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>75.8</v>
+        <v>76.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11-01-2025 12:00</t>
+          <t>12-01-2025 15:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Phrae United - Bangkok</t>
+          <t>Celta De Vigo III - Boiro</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11-01-2025 16:00</t>
+          <t>13-01-2025 19:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Besiktas - BB Bodrumspor</t>
+          <t>Audace Cerignola - Avellino</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>96.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CAF CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Maniema Union - Mamelodi Sundowns</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>11-01-2025 10:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sigma Olomouc - FK Košice</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>76</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Tamworth - Tottenham</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Hull City - Doncaster</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>80</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>12-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FA CUP</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Crystal Palace - Stockport County</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>84</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>EREDIVISIE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Feyenoord - Utrecht</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>80</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>12-01-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Brescia - Sampdoria</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Cosenza - Mantova</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>84</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>12-01-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Perez Zeledon - Sporting San Jose</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Clodiense - Pergolettese</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>80</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Felgueiras 1932 - Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>76</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>12-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Bergantiños - Guijuelo</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - UD Logroñés</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +1562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,816 +1615,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 16:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aldershot Town - Solihull Moors</t>
+          <t>Montpellier - Angers</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 13:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hemel Hempstead Town - Slough Town</t>
+          <t>Feyenoord - Utrecht</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 17:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>SUPER LEAGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Weymouth - Dorking Wanderers</t>
+          <t>PAOK - Volos NFC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CAMBODIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>C-LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dartford - Chichester City</t>
+          <t>Life Sihanoukville - Kirivong Sok Sen Chey</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 13:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>RWANDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>NATIONAL SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Macclesfield - United Of Manchester</t>
+          <t>Amagaju - APR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>2.55</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11-01-2025 15:00</t>
+          <t>12-01-2025 11:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bedford Town - AFC Telford United</t>
+          <t>Colonia Moscardó - CF Talavera</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>66.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Halesowen Town - Royston Town</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Wimborne Town - Marlow</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>60</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11-01-2025 06:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LIGA 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PSBS Biak Numfor - Persib Bandung</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G10" t="n">
-        <v>60</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NORTHERN-IRELAND</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Crusaders FC - Dungannon Swifts</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G11" t="n">
-        <v>60</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11-01-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>QATAR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>STARS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Al Ahli Doha - Al Wakrah</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>65</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:35</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Al Arabi SC - Jeddah Club</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:55</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Ohod - Al Najma</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>80</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>65</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>11-01-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Real Madrid II - Alcoyano</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>11-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Lamphun Warrior - Muangthong United</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>70</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>65</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sukhothai FC - Khon Kaen United</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G17" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Phrae United - Bangkok</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>11-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Paks - BVSC</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>75</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:15</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Montpellier - Angers</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>70</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G20" t="n">
-        <v>60</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>EREDIVISIE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Feyenoord - Utrecht</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>85</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>60</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>12-01-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>GREECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PAOK - Volos NFC</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>90</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>65</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CAMBODIA</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C-LEAGUE</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Life Sihanoukville - Kirivong Sok Sen Chey</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G23" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>12-01-2025 03:05</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MEXICO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Dorados - Mineros De Zacatecas</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G24" t="n">
-        <v>60</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Colonia Moscardó - CF Talavera</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>80</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H25" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -2915,7 +1827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2958,85 +1870,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-01-2025 12:30</t>
+          <t>12-01-2025 13:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. DIVISION</t>
+          <t>SERIE D - GIRONE E</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Halkanoras - Digenis Morphou</t>
+          <t>Fezzanese - Poggibonsi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>11-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Phrae United - Bangkok</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11-01-2025 10:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FRIENDLIES CLUBS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Neuchatel Xamax FC - Biel-Bienne</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -472,26 +472,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-01-2025 13:30</t>
+          <t>13-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Groningen - Almere City FC</t>
+          <t>Manchester City U21 - Brighton U21</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
@@ -500,82 +500,82 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-01-2025 21:30</t>
+          <t>13-01-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alianza Lima - Emelec</t>
+          <t>Eldense - Eibar</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-01-2025 19:30</t>
+          <t>13-01-2025 17:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eldense - Eibar</t>
+          <t>Manisa BBSK - Ümraniyespor</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13-01-2025 17:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Manisa BBSK - Ümraniyespor</t>
+          <t>Harborough Town - AFC Sudbury</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
         <v>1.95</v>
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,477 +635,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-01-2025 14:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cosenza - Mantova</t>
+          <t>Forest Green - Barnet</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-01-2025 16:00</t>
+          <t>14-01-2025 11:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Riffa - Sitra</t>
+          <t>Lamphun Warrior - Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62.3</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SÃO PAULO YOUTH CUP</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ferroviária U20 - Vitória U20</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:15</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GREECE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Diagoras - Iraklis 1908</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Vis Pesaro - Legnago Salus</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ascoli - Virtus Entella</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>60</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>KENYA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3K - Kibera Black Stars</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>12-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MOROCCO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BOTOLA 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Chabab Atl. Khenifra - Raja Beni Mellal</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tarazona - Unionistas De Salamanca</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Yeclano - AD Ceuta FC</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Bergantiños - Guijuelo</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>60</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - UD Logroñés</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>60</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>El Palo - El Ejido</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>60</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TUNISIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LIGUE 1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EGS Gafsa - US Ben Guerdane</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CAF CONFEDERATION CUP</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Orapa United - USM Alger</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>80</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CAF CONFEDERATION CUP</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Jaraaf - ASEC Mimosas</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>70</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CAF CONFEDERATION CUP</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Enyimba - AL Masry</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,63 +742,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-01-2025 12:30</t>
+          <t>13-01-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tamworth - Tottenham</t>
+          <t>Audace Cerignola - Avellino</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>96.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-01-2025 12:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hull City - Doncaster</t>
+          <t>Atalanta - Juventus</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-01-2025 15:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1228,327 +808,47 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FA CUP</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Crystal Palace - Stockport County</t>
+          <t>Chorley - Peterborough Sports</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-01-2025 13:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Feyenoord - Utrecht</t>
+          <t>Haguenau - Dunkerque</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-01-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Brescia - Sampdoria</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SERIE B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cosenza - Mantova</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BAHRAIN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Al Riffa - Sitra</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>12-01-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Perez Zeledon - Sporting San Jose</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>12-01-2025 16:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Clodiense - Pergolettese</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Felgueiras 1932 - Pacos Ferreira</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Bergantiños - Guijuelo</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - UD Logroñés</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Celta De Vigo III - Boiro</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>84</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13-01-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Audace Cerignola - Avellino</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1615,205 +915,137 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-01-2025 16:15</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Montpellier - Angers</t>
+          <t>Gateshead - FC Halifax Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
         <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12-01-2025 13:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feyenoord - Utrecht</t>
+          <t>Merthyr Town - AFC Totton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>62.5</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12-01-2025 17:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 1</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PAOK - Volos NFC</t>
+          <t>Marlow - Tiverton Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12-01-2025 11:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CAMBODIA</t>
+          <t>WALES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C-LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Life Sihanoukville - Kirivong Sok Sen Chey</t>
+          <t>Caernarfon Town - Flint Town United</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>66.7</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RWANDA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NATIONAL SOCCER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Amagaju - APR</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Colonia Moscardó - CF Talavera</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -1870,26 +1102,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12-01-2025 13:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE E</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fezzanese - Poggibonsi</t>
+          <t>Ebbsfleet United - Yeovil Town</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
         <v>1.75</v>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -472,113 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13-01-2025 19:00</t>
+          <t>14-01-2025 13:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALGERIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>COUPE NATIONALE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manchester City U21 - Brighton U21</t>
+          <t>RC Kouba - JS Saoura</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13-01-2025 19:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eldense - Eibar</t>
+          <t>Harborough Town - AFC Sudbury</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13-01-2025 17:00</t>
+          <t>15-01-2025 18:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>COPA DEL REY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Manisa BBSK - Ümraniyespor</t>
+          <t>Pontevedra - Getafe</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 12:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Harborough Town - AFC Sudbury</t>
+          <t>Bangkok Glass - Ratchaburi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,28 +663,112 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14-01-2025 11:00</t>
+          <t>14-01-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lamphun Warrior - Nakhon Ratchasima FC</t>
+          <t>Barra SE - Lagarto</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>60</v>
       </c>
       <c r="F3" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Suez - Abu Qair Semad</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ETHIOPIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ethiopia Nigd Bank - Mebrat Hayl</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior - Nakhon Ratchasima FC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F6" t="n">
         <v>3.75</v>
       </c>
     </row>
@@ -699,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +826,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13-01-2025 19:30</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -752,19 +836,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audace Cerignola - Avellino</t>
+          <t>Atalanta - Juventus</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>96.7</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -775,24 +859,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Atalanta - Juventus</t>
+          <t>Chorley - Peterborough Sports</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
@@ -803,52 +887,192 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chorley - Peterborough Sports</t>
+          <t>Haguenau - Dunkerque</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Haguenau - Dunkerque</t>
+          <t>Union Berlin - FC Augsburg</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PAULISTA - A1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Velo Clube - Noroeste</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15-01-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Santa Ana - Puntarenas FC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thaon - Strasbourg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Al Kholood - Al-Ahli Jeddah</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THAILAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Port FC - Khon Kaen United</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,6 +1270,74 @@
       </c>
       <c r="H5" t="n">
         <v>2.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15-01-2025 17:45</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>KNVB BEKER</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GO Ahead Eagles - Twente</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>COUPE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cannes - Lorient</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,112 +472,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14-01-2025 13:00</t>
+          <t>15-01-2025 22:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COUPE NATIONALE</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RC Kouba - JS Saoura</t>
+          <t>Caravaggio - Chapecoense-sc</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 14:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>PARANAENSE - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Harborough Town - AFC Sudbury</t>
+          <t>Andraus Brasil - Azuriz</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-01-2025 18:30</t>
+          <t>15-01-2025 11:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>IRAQ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>IRAQI LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pontevedra - Getafe</t>
+          <t>Al Talaba - Erbil</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>78.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-01-2025 12:35</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAUDI-ARABIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Al Najma - Al Jandal</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COPA DEL REY</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pontevedra - Getafe</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>15-01-2025 12:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>THAILAND</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>THAI LEAGUE 1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bangkok Glass - Ratchaburi</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>73.3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -592,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,35 +691,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ALBANIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>CUP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Forest Green - Barnet</t>
+          <t>Teuta Durrës - AF Elbasani</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14-01-2025 23:00</t>
+          <t>15-01-2025 23:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -673,103 +729,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SERGIPANO</t>
+          <t>CATARINENSE - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barra SE - Lagarto</t>
+          <t>Avai - Santa Catarina</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14-01-2025 12:30</t>
+          <t>16-01-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Suez - Abu Qair Semad</t>
+          <t>Ipswich - Brighton</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>14-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ETHIOPIA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ethiopia Nigd Bank - Mebrat Hayl</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Lamphun Warrior - Nakhon Ratchasima FC</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,203 +826,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Atalanta - Juventus</t>
+          <t>Union Berlin - FC Augsburg</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 21:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>PAULISTA - A1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chorley - Peterborough Sports</t>
+          <t>Velo Clube - Noroeste</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>81.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 23:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Haguenau - Dunkerque</t>
+          <t>Santa Ana - Puntarenas FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-01-2025 19:30</t>
+          <t>15-01-2025 17:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Union Berlin - FC Augsburg</t>
+          <t>Thaon - Strasbourg</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-01-2025 21:30</t>
+          <t>15-01-2025 20:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>TAÇA DE PORTUGAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Velo Clube - Noroeste</t>
+          <t>SC Braga - Lusitano Évora 1911</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>81.7</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15-01-2025 23:00</t>
+          <t>15-01-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Santa Ana - Puntarenas FC</t>
+          <t>Al Kholood - Al-Ahli Jeddah</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>83.3</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-01-2025 17:30</t>
+          <t>15-01-2025 11:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thaon - Strasbourg</t>
+          <t>Port FC - Khon Kaen United</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>87.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15-01-2025 17:00</t>
+          <t>16-01-2025 13:55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Kholood - Al-Ahli Jeddah</t>
+          <t>Al Akhdoud - Al-Fayha</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1045,34 +1045,6 @@
       </c>
       <c r="F9" t="n">
         <v>1.85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>15-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Port FC - Khon Kaen United</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>87.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,205 +1111,169 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 17:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>KNVB BEKER</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gateshead - FC Halifax Town</t>
+          <t>GO Ahead Eagles - Twente</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 17:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Merthyr Town - AFC Totton</t>
+          <t>Cannes - Lorient</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>62.5</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marlow - Tiverton Town</t>
+          <t>SC Covilha - Lusitânia</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
         <v>66.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.25</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>15-01-2025 12:35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WALES</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Caernarfon Town - Flint Town United</t>
+          <t>Al-Hazm - Al Safa</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>70</v>
+        <v>33.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-01-2025 17:45</t>
+          <t>15-01-2025 11:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GO Ahead Eagles - Twente</t>
+          <t>Wisla Plock - Warta Gorzów</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15-01-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cannes - Lorient</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1394,29 +1330,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>16-01-2025 14:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>INDIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>INDIAN SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ebbsfleet United - Yeovil Town</t>
+          <t>Minerva Punjab - Mumbai City</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,119 +472,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-01-2025 22:30</t>
+          <t>17-01-2025 00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Caravaggio - Chapecoense-sc</t>
+          <t>Sporting San Jose - CS Cartagines</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-01-2025 14:00</t>
+          <t>17-01-2025 02:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PARANAENSE - 1</t>
+          <t>LIGA MX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Andraus Brasil - Azuriz</t>
+          <t>Club America - Club Tijuana</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-01-2025 11:30</t>
+          <t>17-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IRAQ</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IRAQI LEAGUE</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Talaba - Erbil</t>
+          <t>Dungannon Swifts - Glenavon FC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>78.3</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-01-2025 12:35</t>
+          <t>17-01-2025 17:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Najma - Al Jandal</t>
+          <t>Cape Town City - Richards Bay</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-01-2025 18:30</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -594,47 +594,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COPA DEL REY</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pontevedra - Getafe</t>
+          <t>Sestao River - Real Unión</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bangkok Glass - Ratchaburi</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,85 +663,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-01-2025 16:00</t>
+          <t>16-01-2025 12:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALBANIA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUP</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Teuta Durrës - AF Elbasani</t>
+          <t>Al Jabalain - Al Baten</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-01-2025 23:30</t>
+          <t>17-01-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Avai - Santa Catarina</t>
+          <t>Guingamp - Rodez</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>16-01-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ipswich - Brighton</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -826,91 +770,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-01-2025 19:30</t>
+          <t>16-01-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Union Berlin - FC Augsburg</t>
+          <t>Maguary PE - Central SC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-01-2025 21:30</t>
+          <t>16-01-2025 13:55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PAULISTA - A1</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Velo Clube - Noroeste</t>
+          <t>Al Akhdoud - Al-Fayha</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>81.7</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-01-2025 23:00</t>
+          <t>17-01-2025 16:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Santa Ana - Puntarenas FC</t>
+          <t>Bahrain SC - Sitra</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>83.3</v>
+        <v>93.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-01-2025 17:30</t>
+          <t>17-01-2025 18:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -920,131 +864,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thaon - Strasbourg</t>
+          <t>Orleans - Chateauroux</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-01-2025 20:15</t>
+          <t>17-01-2025 08:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TAÇA DE PORTUGAL</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SC Braga - Lusitano Évora 1911</t>
+          <t>Persebaya Surabaya - Malut United</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15-01-2025 17:00</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Kholood - Al-Ahli Jeddah</t>
+          <t>Giugliano - Audace Cerignola</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>81.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-01-2025 11:00</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 1</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Port FC - Khon Kaen United</t>
+          <t>Alcorcon - Fuenlabrada</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16-01-2025 13:55</t>
+          <t>17-01-2025 17:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Al-Fayha</t>
+          <t>Şanlıurfaspor - Ankaragucu</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -1111,169 +1055,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-01-2025 17:45</t>
+          <t>17-01-2025 18:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KNVB BEKER</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GO Ahead Eagles - Twente</t>
+          <t>Montpellier - Monaco</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-01-2025 17:30</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cannes - Lorient</t>
+          <t>Eintracht Frankfurt - Borussia Dortmund</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
         <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-01-2025 15:00</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SC Covilha - Lusitânia</t>
+          <t>Yeovil Town - Gateshead</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15-01-2025 12:35</t>
+          <t>17-01-2025 08:35</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Hazm - Al Safa</t>
+          <t>Western Sydney Wanderers - Central Coast Mariners</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15-01-2025 11:00</t>
+          <t>17-01-2025 18:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisla Plock - Warta Gorzów</t>
+          <t>Hannover 96 II - Erzgebirge Aue</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,141 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 00:00</t>
+          <t>17-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>MOROCCO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>BOTOLA PRO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sporting San Jose - CS Cartagines</t>
+          <t>CODM Meknès - Moghreb Tetouan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-01-2025 02:10</t>
+          <t>17-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>NORTHERN-IRELAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA MX</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Club America - Club Tijuana</t>
+          <t>Dungannon Swifts - Glenavon FC</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-01-2025 19:45</t>
+          <t>17-01-2025 17:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>SOUTH-AFRICA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>PREMIER SOCCER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Glenavon FC</t>
+          <t>Cape Town City - Richards Bay</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-01-2025 17:30</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cape Town City - Richards Bay</t>
+          <t>Sestao River - Real Unión</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
         <v>1.95</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>17-01-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sestao River - Real Unión</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,57 +635,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-01-2025 12:45</t>
+          <t>17-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Jabalain - Al Baten</t>
+          <t>Guingamp - Rodez</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>17-01-2025 19:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Guingamp - Rodez</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,224 +714,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-01-2025 18:00</t>
+          <t>17-01-2025 16:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PERNAMBUCANO - 1</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maguary PE - Central SC</t>
+          <t>Bahrain SC - Sitra</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>93.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16-01-2025 13:55</t>
+          <t>17-01-2025 18:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRO LEAGUE</t>
+          <t>NATIONAL 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Akhdoud - Al-Fayha</t>
+          <t>Orleans - Chateauroux</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-01-2025 16:00</t>
+          <t>17-01-2025 08:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bahrain SC - Sitra</t>
+          <t>Persebaya Surabaya - Malut United</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>93.3</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-01-2025 18:30</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Orleans - Chateauroux</t>
+          <t>Giugliano - Audace Cerignola</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>81.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-01-2025 08:30</t>
+          <t>17-01-2025 19:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya - Malut United</t>
+          <t>Alcorcon - Fuenlabrada</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>17-01-2025 17:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Giugliano - Audace Cerignola</t>
+          <t>Şanlıurfaspor - Ankaragucu</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>81.7</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17-01-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Alcorcon - Fuenlabrada</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>17-01-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1. LIG</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Şanlıurfaspor - Ankaragucu</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>76</v>
-      </c>
-      <c r="F9" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -1002,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,7 +1005,7 @@
         <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
@@ -1185,41 +1073,109 @@
         <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-01-2025 18:00</t>
+          <t>17-01-2025 19:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Erzgebirge Aue</t>
+          <t>Patro Eisden - Lokeren-Temse</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
         <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17-01-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Hannover 96 II - Erzgebirge Aue</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17-01-2025 10:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA ALEF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tzeirei Umm Al-Fahm - Kiryat Yam SC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G8" t="n">
+        <v>65</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1276,29 +1232,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16-01-2025 14:00</t>
+          <t>17-01-2025 11:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INDIAN SUPER LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Minerva Punjab - Mumbai City</t>
+          <t>Maccabi Kiryat Malachi - Maccabi Ashdod</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,54 +472,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 19:00</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MOROCCO</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOTOLA PRO</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CODM Meknès - Moghreb Tetouan</t>
+          <t>Reading - Stockport County</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-01-2025 19:45</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NORTHERN-IRELAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dungannon Swifts - Glenavon FC</t>
+          <t>Salford City - Fleetwood Town</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
         <v>1.95</v>
@@ -528,22 +528,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-01-2025 17:30</t>
+          <t>18-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SOUTH-AFRICA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER SOCCER LEAGUE</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cape Town City - Richards Bay</t>
+          <t>Rennes - Stade Brestois 29</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -556,29 +556,477 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>18-01-2025 14:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Holstein Kiel - 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sestao River - Real Unión</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LA LIGA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Girona - Sevilla</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LIGUE 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dunkerque - Lorient</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SCOTLAND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FA CUP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Elgin City - Aberdeen</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>80</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FIRST AMATEUR DIVISION</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dessel Sport - Tienen</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ilkeston Town - Morpeth Town</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Taunton Town - Wimborne Town</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Walton &amp; Hersham - Hungerford Town</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fulham U21 - Arsenal U21</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sreenidi Deccan - Shillong Lajong</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Atalanta II - Triestina</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KENYA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kibera Black Stars - Dimba Patriots</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>70</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Alverca - FC Porto B</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>70</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Krems / Rehberg - Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Escobedo - Laredo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cádiz II - Don Benito</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CAF CONFEDERATION CUP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Simba - CS Constantine</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>80</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,29 +1083,421 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 19:00</t>
+          <t>18-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Plymouth - QPR</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>FRANCE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>LIGUE 2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Guingamp - Rodez</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Clermont Foot - Laval</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>60</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.5</v>
+      <c r="F3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cittadella - Mantova</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ROMANIA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LIGA I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Oţelul - Petrolul Ploiesti</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18-01-2025 17:15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KV Mechelen - Genk</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18-01-2025 22:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CARIOCA - 1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fluminense - CFRJ / Maricá</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-01-2025 18:30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NATIONAL 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Aubagne - Nimes</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sorrento - Potenza</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LIGA 3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Academica - 1º Dezembro</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18-01-2025 10:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Skalica - Líšeň</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-01-2025 13:20</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SalPa - Turku PS</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>60</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CATARINENSE - 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Santa Catarina - Caravaggio</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>COSTA-RICA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LIGA DE ASCENSO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>San Carlos FC - Quepos Cambute</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>19-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Barcelona B - Ponferradina</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>19-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UD Logroñés - Deportivo Alavés II</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,26 +1554,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 16:00</t>
+          <t>18-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BAHRAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bahrain SC - Sitra</t>
+          <t>Plymouth - QPR</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
         <v>1.8</v>
@@ -742,141 +1582,757 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-01-2025 18:30</t>
+          <t>18-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NATIONAL 1</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Orleans - Chateauroux</t>
+          <t>Atalanta - Napoli</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>86.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-01-2025 08:30</t>
+          <t>18-01-2025 17:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDONESIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 1</t>
+          <t>LA LIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Persebaya Surabaya - Malut United</t>
+          <t>Real Betis - Alaves</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE C</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Giugliano - Audace Cerignola</t>
+          <t>Oldham - Aldershot Town</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>81.7</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>SUPER LEAGUE 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alcorcon - Fuenlabrada</t>
+          <t>Kallithea - Volos NFC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="F6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-01-2025 17:00</t>
+          <t>18-01-2025 14:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Şanlıurfaspor - Ankaragucu</t>
+          <t>Cittadella - Mantova</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>76</v>
       </c>
       <c r="F7" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-01-2025 18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rio Ave - Sporting CP</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAMBODIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Life Sihanoukville - Phnom Penh Crown</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Truro City - Aveley</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18-01-2025 07:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HONG-KONG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>North District - Wofoo Tai Po</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Benevento - Team Altamura</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Alverca - FC Porto B</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18-01-2025 14:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AD Ceuta FC - Sevilla Atletico</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18-01-2025 20:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Levante - Granada CF</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SS Reyes - Móstoles</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 11</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Binissalem - Portmany</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JBK - FF Jaro</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19-01-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Angers - Auxerre</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19-01-2025 15:45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen - Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LA LIGA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Osasuna - Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>19-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PRIMEIRA LIGA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Moreirense - Farense</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>19-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Union St. Gilloise - OH Leuven</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>19-01-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CATARINENSE - 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Barra - Joinville</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>90</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>19-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3. LIGA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dynamo Dresden - FC Viktoria Köln</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19-01-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Lobos ULMX - Correcaminos UAT II</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Jaguares De Chiapas - Chilpancingo</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>19-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mérida AD - Marbella</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>19-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Unión Sur Yaiza - CD Coria</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>76</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +2346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,41 +2399,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 18:00</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Montpellier - Monaco</t>
+          <t>Portsmouth - Middlesbrough</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>18-01-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -992,190 +2448,870 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt - Borussia Dortmund</t>
+          <t>VfB Stuttgart - SC Freiburg</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17-01-2025 19:30</t>
+          <t>18-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yeovil Town - Gateshead</t>
+          <t>Atalanta - Napoli</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-01-2025 08:35</t>
+          <t>18-01-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers - Central Coast Mariners</t>
+          <t>GO Ahead Eagles - Groningen</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>57.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17-01-2025 19:00</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Patro Eisden - Lokeren-Temse</t>
+          <t>Oldham - Aldershot Town</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>72.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-01-2025 18:00</t>
+          <t>18-01-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hannover 96 II - Erzgebirge Aue</t>
+          <t>York - Sutton Utd</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-01-2025 10:30</t>
+          <t>18-01-2025 18:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tzeirei Umm Al-Fahm - Kiryat Yam SC</t>
+          <t>Dessel Sport - Tienen</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Folkestone Invicta - Canvey Island</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prescot Cables - Worksop Town</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Gloucester City - Sholing</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Havant &amp; Wville - Merthyr Town</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Walton &amp; Hersham - Hungerford Town</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G13" t="n">
+        <v>65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>18-01-2025 12:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2. BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1. FC Kaiserslautern - SSV Ulm 1846</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18-01-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Inter Kashi - Aizawl</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>65</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MALTA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Gudja United - Swieqi United</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NORTHERN-IRELAND</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Coleraine FC - Crusaders FC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G17" t="n">
+        <v>45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18-01-2025 16:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SS Reyes - Móstoles</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>19-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Manchester United - Brighton</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>80</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19-01-2025 16:15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Angers - Auxerre</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19-01-2025 16:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Werder Bremen - FC Augsburg</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>70</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>70</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>19-01-2025 18:15</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Antwerp - KVC Westerlo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G22" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>19-01-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>LIGA PREMIER SERIE A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lobos ULMX - Correcaminos UAT II</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>19-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>LIGA 3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital - SC Covilha</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>85</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>19-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Castellón - Cordoba</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>60</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cacereño - Colonia Moscardó</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FC Lugano - FC Basel 1893</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>65</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.5</v>
+      <c r="F27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G27" t="n">
+        <v>65</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>19-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cienciano - Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,29 +3368,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-01-2025 11:00</t>
+          <t>18-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maccabi Kiryat Malachi - Maccabi Ashdod</t>
+          <t>Tubize - Rochefort</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18-01-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CARIOCA - 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sampaio Corrêa RJ - Botafogo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - SOUTH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chesham United - Maidstone Utd</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FRIENDLIES CLUBS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sogndal - Lysekloster</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,169 +472,113 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-01-2025 11:00</t>
+          <t>20-01-2025 12:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SUPER LEAGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Escobedo - Laredo</t>
+          <t>Asteras Tripolis II - Egaleo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-01-2025 11:00</t>
+          <t>21-01-2025 20:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 4</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cádiz II - Don Benito</t>
+          <t>FK Crvena Zvezda - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-01-2025 13:00</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAF CONFEDERATION CUP</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Simba - CS Constantine</t>
+          <t>Peterborough - Exeter City</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-01-2025 22:00</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Millonarios - America De Cali</t>
+          <t>Oldham - York</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>73.3</v>
+        <v>86.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20-01-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Perez Zeledon - Santa Ana</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>80</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GREECE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Asteras Tripolis II - Egaleo</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,225 +635,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-01-2025 19:00</t>
+          <t>20-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Santa Catarina - Caravaggio</t>
+          <t>Estac Troyes - Annecy</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-01-2025 20:00</t>
+          <t>20-01-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA DE ASCENSO</t>
+          <t>PERNAMBUCANO - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Carlos FC - Quepos Cambute</t>
+          <t>Petrolina - Maguary PE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>63.5</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-01-2025 12:30</t>
+          <t>20-01-2025 22:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wadi Degla - Raya Ghazl</t>
+          <t>Falcon - Barra SE</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-01-2025 15:00</t>
+          <t>20-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ETHIOPIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAMPEONATO DE PORTUGAL PRIO - GROUP C</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mortágua - Arronches E Benfica</t>
+          <t>Bahardar - Ethiopian Medhin</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-01-2025 14:30</t>
+          <t>21-01-2025 20:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barcelona B - Ponferradina</t>
+          <t>Liverpool - Lille</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>19-01-2025 16:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UD Logroñés - Deportivo Alavés II</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>19-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3. LIG - GROUP 3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Çankaya FK - Bursa Yıldırımspor</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20-01-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LIGUE 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Estac Troyes - Annecy</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,533 +826,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-01-2025 16:15</t>
+          <t>20-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Angers - Auxerre</t>
+          <t>Farul Constanta - Uta Arad</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>78.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-01-2025 15:45</t>
+          <t>20-01-2025 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>LIGAT HA'AL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NEC Nijmegen - Fortuna Sittard</t>
+          <t>Hapoel Haifa - Ashdod</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-01-2025 17:30</t>
+          <t>20-01-2025 14:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>KUWAIT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LA LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Osasuna - Rayo Vallecano</t>
+          <t>Khaitan - Al Kuwait</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-01-2025 15:30</t>
+          <t>20-01-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PRIMEIRA LIGA</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Moreirense - Farense</t>
+          <t>Quick Boys - Noordwijk</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>78.3</v>
+        <v>75.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-01-2025 18:30</t>
+          <t>20-01-2025 15:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALBANIA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>PRO LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dinamo Tirana - AF Elbasani</t>
+          <t>Al-Raed - Al Akhdoud</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-01-2025 15:00</t>
+          <t>20-01-2025 12:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Union St. Gilloise - OH Leuven</t>
+          <t>Bangkok United - Nakhon Pathom</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-01-2025 21:00</t>
+          <t>21-01-2025 15:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CATARINENSE - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Barra - Joinville</t>
+          <t>Galatasaray - Dynamo Kyiv</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-01-2025 12:30</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dynamo Dresden - FC Viktoria Köln</t>
+          <t>AFC Totton - Frome Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>75.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-01-2025 23:15</t>
+          <t>21-01-2025 00:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CD Motagua - CD Real Sociedad</t>
+          <t>Cavalier - Racing United</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mérida AD - Marbella</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>96</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>19-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Unión Sur Yaiza - CD Coria</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>76</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>19-01-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 11</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Porreres - Manacor</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>19-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kepez Belediyespor - Adana 1954 FK</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>76</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>20-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>LIGA I</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Farul Constanta - Uta Arad</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20-01-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MINEIRO - 1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Uberlandia - America Mineiro</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20-01-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Perez Zeledon - Santa Ana</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20-01-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LIGAT HA'AL</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Hapoel Haifa - Ashdod</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>80</v>
-      </c>
-      <c r="F18" t="n">
         <v>1.83</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20-01-2025 15:15</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SAUDI-ARABIA</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PRO LEAGUE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Al-Raed - Al Akhdoud</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>THAILAND</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>THAI LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Bangkok United - Nakhon Pathom</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1559,32 +1139,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19-01-2025 14:00</t>
+          <t>20-01-2025 17:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA LEUMIT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Manchester United - Brighton</t>
+          <t>Hapoel Kfar Shalem - Hapoel Ramat Gan</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
@@ -1593,339 +1173,273 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19-01-2025 16:15</t>
+          <t>20-01-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Angers - Auxerre</t>
+          <t>Quick Boys - Noordwijk</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.8</v>
+        <v>78.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>66.8</v>
+        <v>67.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19-01-2025 16:30</t>
+          <t>21-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Werder Bremen - FC Augsburg</t>
+          <t>FK Crvena Zvezda - PSV Eindhoven</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19-01-2025 18:15</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Antwerp - KVC Westerlo</t>
+          <t>Bolton - Charlton</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>67.5</v>
+        <v>47.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-01-2025 15:00</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Oliveira Hospital - SC Covilha</t>
+          <t>Chorley - Oxford City</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>33.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19-01-2025 17:30</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Castellón - Cordoba</t>
+          <t>Weymouth - Maidstone Utd</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19-01-2025 11:00</t>
+          <t>21-01-2025 19:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cacereño - Colonia Moscardó</t>
+          <t>Blyth Spartans - Ashton United</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>66.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
         <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19-01-2025 10:30</t>
+          <t>21-01-2025 08:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 4</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Basconia - Eibar III</t>
+          <t>Bhayangkara FC - Persijap</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19-01-2025 15:30</t>
+          <t>21-01-2025 00:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>JAMAICA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Lugano - FC Basel 1893</t>
+          <t>Cavalier - Racing United</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>19-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UNITED-ARAB-EMIRATES</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DIVISION 1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Gulf United - Gulf Heroes</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>65</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G11" t="n">
-        <v>65</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20-01-2025 17:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LIGA LEUMIT</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Hapoel Kfar Shalem - Hapoel Ramat Gan</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>75</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G12" t="n">
-        <v>65</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,169 +472,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-01-2025 20:00</t>
+          <t>22-01-2025 22:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>GAÚCHO - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda - PSV Eindhoven</t>
+          <t>São Luiz - Avenida</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>22-01-2025 14:50</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Peterborough - Exeter City</t>
+          <t>Al Safa - Al Jubail</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>23-01-2025 17:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Oldham - York</t>
+          <t>AZ Alkmaar - AS Roma</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PROFESSIONAL DEVELOPMENT LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fleetwood Town U21 - Hull City U21</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-01-2025 14:45</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>KUWAIT</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Al Fahaheel - Yarmouk</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22-01-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GAÚCHO - 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>São Luiz - Avenida</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,35 +607,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-01-2025 20:00</t>
+          <t>22-01-2025 18:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Liverpool - Lille</t>
+          <t>CFRJ / Maricá - Nova Iguaçu</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-01-2025 18:45</t>
+          <t>22-01-2025 23:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -729,19 +645,75 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>GOIANO - 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CFRJ / Maricá - Nova Iguaçu</t>
+          <t>Goiatuba EC - Anápolis</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23-01-2025 23:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SERGIPANO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Barra SE - Lagarto</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>60</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.1</v>
+      <c r="F4" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23-01-2025 00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NICARAGUA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Real Estelí - Walter Ferretti</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,7 +770,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-01-2025 15:30</t>
+          <t>22-01-2025 20:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -808,186 +780,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA EUROPA LEAGUE</t>
+          <t>UEFA CHAMPIONS LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Galatasaray - Dynamo Kyiv</t>
+          <t>Arsenal - Dinamo Zagreb</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>22-01-2025 22:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>PRIMERA DIVISIÓN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AFC Totton - Frome Town</t>
+          <t>Municipal Liberia - Santa Ana</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-01-2025 12:00</t>
+          <t>22-01-2025 14:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA REVELAÇÃO U23</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Santa Clara U23 - Farense U23</t>
+          <t>Pharco - Al Ahly</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22-01-2025 20:00</t>
+          <t>14-01-2025 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>COUPE DE FRANCE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arsenal - Dinamo Zagreb</t>
+          <t>Haguenau - Dunkerque</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22-01-2025 22:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COSTA-RICA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Municipal Liberia - Santa Ana</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22-01-2025 14:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pharco - Al Ahly</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>14-01-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>COUPE DE FRANCE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Haguenau - Dunkerque</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -1002,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,7 +943,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-01-2025 20:00</t>
+          <t>22-01-2025 17:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1070,258 +958,122 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Crvena Zvezda - PSV Eindhoven</t>
+          <t>Shakhtar Donetsk - Stade Brestois 29</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>23-01-2025 17:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bolton - Charlton</t>
+          <t>Bodo/Glimt - Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>93.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>47.5</v>
+        <v>66.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>23-01-2025 17:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chorley - Oxford City</t>
+          <t>Malmo FF - Twente</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
         <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>33.3</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21-01-2025 19:45</t>
+          <t>23-01-2025 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weymouth - Maidstone Utd</t>
+          <t>Manchester United - Rangers</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
         <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21-01-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Blyth Spartans - Ashton United</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21-01-2025 08:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>INDONESIA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LIGA 2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Bhayangkara FC - Persijap</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>21-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>LIGA REVELAÇÃO U23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Gil Vicente U23 - Famalicão U23</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>90</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G8" t="n">
-        <v>65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>22-01-2025 17:45</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Shakhtar Donetsk - Stade Brestois 29</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G9" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,85 +472,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-01-2025 22:00</t>
+          <t>23-01-2025 17:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GAÚCHO - 1</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>São Luiz - Avenida</t>
+          <t>AZ Alkmaar - AS Roma</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-01-2025 14:50</t>
+          <t>23-01-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>LIGA REVELAÇÃO U23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Safa - Al Jubail</t>
+          <t>Sporting CP U23 - Benfica U23</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23-01-2025 17:45</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar - AS Roma</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +579,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-01-2025 18:45</t>
+          <t>23-01-2025 23:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -617,103 +589,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CARIOCA - 1</t>
+          <t>SERGIPANO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CFRJ / Maricá - Nova Iguaçu</t>
+          <t>Barra SE - Lagarto</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22-01-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GOIANO - 1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Goiatuba EC - Anápolis</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23-01-2025 23:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SERGIPANO</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Barra SE - Lagarto</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
         <v>5.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23-01-2025 00:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NICARAGUA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Real Estelí - Walter Ferretti</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +831,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-01-2025 17:45</t>
+          <t>23-01-2025 17:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -953,25 +841,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>UEFA EUROPA LEAGUE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shakhtar Donetsk - Stade Brestois 29</t>
+          <t>Bodo/Glimt - Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>73.3</v>
+        <v>93.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
         <v>66.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -992,26 +880,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bodo/Glimt - Maccabi Tel Aviv</t>
+          <t>Malmo FF - Twente</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>93.3</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23-01-2025 17:45</t>
+          <t>23-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1026,53 +914,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Malmo FF - Twente</t>
+          <t>Manchester United - Rangers</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
         <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23-01-2025 20:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WORLD</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UEFA EUROPA LEAGUE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Manchester United - Rangers</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,62 @@
       </c>
       <c r="F3" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Vitesse - Dordrecht</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24-01-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Brazil U20 - Argentina U20</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.45</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +658,34 @@
       </c>
       <c r="F2" t="n">
         <v>5.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>24-01-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>I-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gokulam - Inter Kashi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,113 +742,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-01-2025 20:00</t>
+          <t>24-01-2025 19:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UEFA CHAMPIONS LEAGUE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arsenal - Dinamo Zagreb</t>
+          <t>VfL Wolfsburg - Holstein Kiel</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>76</v>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22-01-2025 22:00</t>
+          <t>24-01-2025 17:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>COSTA-RICA</t>
+          <t>CROATIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Municipal Liberia - Santa Ana</t>
+          <t>NK Osijek - Sibenik</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>75.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22-01-2025 14:00</t>
+          <t>24-01-2025 10:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>LIGA ALEF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pharco - Al Ahly</t>
+          <t>Hapoel Marmorek - Agudat Sport Ashdod</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>76.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14-01-2025 19:45</t>
+          <t>24-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COUPE DE FRANCE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Haguenau - Dunkerque</t>
+          <t>Lucchese - Ascoli</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Samsunspor - Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,6 +1040,210 @@
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24-01-2025 19:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg - Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>24-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CROATIA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NK Osijek - Sibenik</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24-01-2025 19:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FC Eindhoven - Cambuur</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>80</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24-01-2025 11:10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ISRAEL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LIGA ALEF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Maccabi Ahi Nazareth - Hapoel Beit Shean</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24-01-2025 19:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SWITZERLAND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Étoile Carouge - FC WIL 1900</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>70</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24-01-2025 17:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SÜPER LIG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Samsunspor - Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -984,29 +1300,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21-01-2025 19:00</t>
+          <t>24-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE CUP</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AFC Bournemouth U21 - Brentford U21</t>
+          <t>Martigues - Amiens</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,85 +472,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-01-2025 19:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vitesse - Dordrecht</t>
+          <t>Cheltenham - Salford City</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-01-2025 14:00</t>
+          <t>25-01-2025 14:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALGERIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SKAF Khémis Mélina - MC Saida</t>
+          <t>FC Augsburg - 1. FC Heidenheim</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-01-2025 23:30</t>
+          <t>25-01-2025 17:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brazil U20 - Argentina U20</t>
+          <t>Borussia Mönchengladbach - VfL Bochum</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -561,80 +561,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GREECE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SUPER LEAGUE 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cheltenham - Salford City</t>
+          <t>OFI - Panserraikos</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-01-2025 14:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Augsburg - 1. FC Heidenheim</t>
+          <t>Clyde - Elgin City</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>73.3</v>
+        <v>71.7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-01-2025 17:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>NON LEAGUE PREMIER - NORTHERN</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Borussia Mönchengladbach - VfL Bochum</t>
+          <t>Matlock Town - United Of Manchester</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="8">
@@ -645,24 +645,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 1</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OFI - Panserraikos</t>
+          <t>Harborough Town - Stourbridge</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="9">
@@ -673,164 +673,248 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clyde - Elgin City</t>
+          <t>Stratford Town - Halesowen Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 12:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - NORTHERN</t>
+          <t>2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Matlock Town - United Of Manchester</t>
+          <t>FC Schalke 04 - 1. FC Nürnberg</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Harborough Town - Stourbridge</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>26-01-2025 17:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Stratford Town - Halesowen Town</t>
+          <t>Achuapa - Malacateco</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-01-2025 12:00</t>
+          <t>26-01-2025 15:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2. BUNDESLIGA</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Schalke 04 - 1. FC Nürnberg</t>
+          <t>São João Ver - Varzim</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>73.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00</t>
+          <t>26-01-2025 17:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E14" t="n">
+        <v>80</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Compostela - Deportivo La Coruña II</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>73.3</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.1</v>
+      <c r="F15" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Guadalajara - Tenerife II</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>80</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Batman Petrolspor - Kastamonuspor 1966</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>70</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,35 +971,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-01-2025 13:30</t>
+          <t>25-01-2025 12:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INDIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I-LEAGUE</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gokulam - Inter Kashi</t>
+          <t>Luton - Millwall</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>66.7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-01-2025 12:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -925,137 +1009,137 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Luton - Millwall</t>
+          <t>Fleetwood Town - Carlisle</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>LIGUE 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fleetwood Town - Carlisle</t>
+          <t>Paris FC - RED Star FC 93</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>66.7</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 14:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Paris FC - RED Star FC 93</t>
+          <t>Cesena - Bari</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>66.7</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25-01-2025 14:00</t>
+          <t>25-01-2025 18:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>BRASILIENSE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cesena - Bari</t>
+          <t>Ceilandense - Ceilândia</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>60</v>
       </c>
       <c r="F6" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>25-01-2025 15:30</t>
+          <t>25-01-2025 18:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PAULISTA - A2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SV Sandhausen - FC Saarbrücken</t>
+          <t>São José EC - Primavera SP</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 15:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1070,70 +1154,322 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Verl - Alemannia Aachen</t>
+          <t>SV Sandhausen - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-01-2025 14:00</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clodiense - Arzignano Valchiampo</t>
+          <t>Verl - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>73.3</v>
+        <v>63.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IRAN</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PERSIAN GULF PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan - Gol Gohar</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>25-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SERIE C - GIRONE A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Clodiense - Arzignano Valchiampo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>25-01-2025 22:30</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>PARAGUAY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>General Caballero - Deportivo Recoleta</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="E12" t="n">
         <v>80</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>25-01-2025 13:10</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UNITED-ARAB-EMIRATES</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DIVISION 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Masfut - Al-Dhafra</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Brescia - Catanzaro</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26-01-2025 12:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EGYPT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SECOND LEAGUE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Aswan Sc - Abu Qair Semad</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>60</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>26-01-2025 01:15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EL-SALVADOR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Isidro Metapán - Once Municipal</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>26-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Marquense - Guastatoya</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>26-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FC Porto B - Tondela</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>26-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Racing Ferrol - Burgos</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,141 +1526,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-01-2025 19:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VfL Wolfsburg - Holstein Kiel</t>
+          <t>Preston - Middlesbrough</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-01-2025 17:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NK Osijek - Sibenik</t>
+          <t>Exeter City - Blackpool</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>78.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-01-2025 10:45</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hapoel Marmorek - Agudat Sport Ashdod</t>
+          <t>Stockport County - Crawley Town</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-01-2025 19:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lucchese - Ascoli</t>
+          <t>Ross County - Hibernian</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>84</v>
+        <v>76.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-01-2025 17:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Samsunspor - Gazişehir Gaziantep</t>
+          <t>Ebbsfleet United - Braintree</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>82.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
@@ -1335,133 +1671,133 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Preston - Middlesbrough</t>
+          <t>Forfar Athletic - Stranraer</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>86.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 16:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>KING'S CUP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Exeter City - Blackpool</t>
+          <t>Al-Hidd - Malkiya</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>78.3</v>
+        <v>76.7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 18:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>POTIGUAR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stockport County - Crawley Town</t>
+          <t>Santa Cruz RN - Força E Luz</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>83.3</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ross County - Hibernian</t>
+          <t>Verl - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 21:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ebbsfleet United - Braintree</t>
+          <t>CD Marathon - Victoria</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>82.2</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
         <v>1.7</v>
@@ -1470,113 +1806,113 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 14:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LEAGUE TWO</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Forfar Athletic - Stranraer</t>
+          <t>Clodiense - Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>86.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-01-2025 21:00</t>
+          <t>25-01-2025 16:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Magallanes - Santiago Morning</t>
+          <t>Città Di Campobasso - Gubbio</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 09:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>MYANMAR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Verl - Alemannia Aachen</t>
+          <t>Rakhine United - Yangon United</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>80.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-01-2025 21:00</t>
+          <t>25-01-2025 11:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CD Marathon - Victoria</t>
+          <t>Felgueiras 1932 - Alverca</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>83.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16">
@@ -1587,136 +1923,444 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Clodiense - Arzignano Valchiampo</t>
+          <t>Leixoes - Chaves</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>86.7</v>
+        <v>75</v>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-01-2025 16:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Città Di Campobasso - Gubbio</t>
+          <t>Recreativo Huelva - AD Ceuta FC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>76</v>
+        <v>76.7</v>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-01-2025 11:00</t>
+          <t>26-01-2025 16:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Felgueiras 1932 - Alverca</t>
+          <t>Aston Villa - West Ham</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>83.3</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-01-2025 14:00</t>
+          <t>26-01-2025 11:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leixoes - Chaves</t>
+          <t>AC Milan - Parma</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>76.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>26-01-2025 13:30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Recreativo Huelva - AD Ceuta FC</t>
+          <t>Waalwijk - Willem II</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>26-01-2025 14:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SERIE B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Brescia - Catanzaro</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>90</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>26-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Anderlecht - KV Mechelen</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>76.7</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.95</v>
+      <c r="F22" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MINEIRO - 1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Uberlandia - Itabirito</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>26-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PARANAENSE - 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Londrina - Parana</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>26-01-2025 21:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>COPA CHILE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>U. Catolica - Everton De Vina</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26-01-2025 13:30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SERIE D - GIRONE C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mestre - Caravaggio</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>80</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26-01-2025 01:05</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cancún - Alebrijes De Oaxaca</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26-01-2025 23:45</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FC Porto B - Tondela</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>90</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Penafiel - Vizela</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Batman Petrolspor - Kastamonuspor 1966</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +2374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,205 +2427,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-01-2025 19:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VfL Wolfsburg - Holstein Kiel</t>
+          <t>QPR - Sheffield Wednesday</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24-01-2025 17:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CROATIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NK Osijek - Sibenik</t>
+          <t>Stockport County - Crawley Town</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24-01-2025 19:00</t>
+          <t>25-01-2025 14:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EERSTE DIVISIE</t>
+          <t>BUNDESLIGA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Eindhoven - Cambuur</t>
+          <t>Borussia Dortmund - Werder Bremen</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24-01-2025 11:10</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISRAEL</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LIGA ALEF</t>
+          <t>PREMIERSHIP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maccabi Ahi Nazareth - Hapoel Beit Shean</t>
+          <t>Ross County - Hibernian</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-01-2025 19:15</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHALLENGE LEAGUE</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Étoile Carouge - FC WIL 1900</t>
+          <t>AFC Fylde - Wealdstone</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-01-2025 17:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SÜPER LIG</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Samsunspor - Gazişehir Gaziantep</t>
+          <t>Aldershot Town - Tamworth</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>53.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8">
@@ -1997,56 +2641,56 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHAMPIONSHIP</t>
+          <t>NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>QPR - Sheffield Wednesday</t>
+          <t>Gateshead - Oldham</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>67.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 16:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BAHRAIN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LEAGUE ONE</t>
+          <t>KING'S CUP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stockport County - Crawley Town</t>
+          <t>Al Ittifaq Maqaba - Isa Town</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G9" t="n">
-        <v>32.5</v>
+        <v>67.5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -2055,35 +2699,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 14:30</t>
+          <t>25-01-2025 19:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BUNDESLIGA</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Borussia Dortmund - Werder Bremen</t>
+          <t>RSC Anderlecht II - Patro Eisden</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
         <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="11">
@@ -2094,64 +2738,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCOTLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PREMIERSHIP</t>
+          <t>CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ross County - Hibernian</t>
+          <t>Seraing United - Francs Borains</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="G11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 19:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>FIRST AMATEUR DIVISION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AFC Fylde - Wealdstone</t>
+          <t>Cappellen - Hoogstraten</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>61.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="13">
@@ -2162,30 +2806,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>CYPRUS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>1. DIVISION</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aldershot Town - Tamworth</t>
+          <t>Omonia 29is Maiou - Apollon Limassol</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>53.3</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
@@ -2201,59 +2845,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gateshead - Oldham</t>
+          <t>Oxford City - Kidderminster Harriers</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>90</v>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>67.5</v>
+        <v>55</v>
       </c>
       <c r="H14" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-01-2025 19:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RSC Anderlecht II - Patro Eisden</t>
+          <t>Weston-super-Mare - Welling United</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F15" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="G15" t="n">
         <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
@@ -2264,30 +2908,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHALLENGER PRO LEAGUE</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Seraing United - Francs Borains</t>
+          <t>Bedford Town - Banbury United</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G16" t="n">
         <v>60</v>
       </c>
       <c r="H16" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="17">
@@ -2298,30 +2942,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CYPRUS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1. DIVISION</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Omonia 29is Maiou - Apollon Limassol</t>
+          <t>Dorchester Town - Sholing</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="18">
@@ -2337,25 +2981,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - NORTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Oxford City - Kidderminster Harriers</t>
+          <t>Frome Town - Gloucester City</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="19">
@@ -2371,25 +3015,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE - SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Weston-super-Mare - Welling United</t>
+          <t>Gosport Borough - Walton &amp; Hersham</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
@@ -2405,294 +3049,294 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bedford Town - Banbury United</t>
+          <t>Winchester City - Swindon Supermarine</t>
         </is>
       </c>
       <c r="E20" t="n">
+        <v>90</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G20" t="n">
         <v>80</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G20" t="n">
-        <v>60</v>
-      </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 15:30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dorchester Town - Sholing</t>
+          <t>SV Sandhausen - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 15:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Frome Town - Gloucester City</t>
+          <t>Mgarr United - Lija Athletic</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G22" t="n">
         <v>60</v>
       </c>
       <c r="H22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 18:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gosport Borough - Walton &amp; Hersham</t>
+          <t>Zabbar St. Patrick - Balzan FC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>70</v>
+        <v>46.7</v>
       </c>
       <c r="H23" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Winchester City - Swindon Supermarine</t>
+          <t>Tecos - Real Apodaca</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F24" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-01-2025 15:30</t>
+          <t>25-01-2025 14:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SV Sandhausen - FC Saarbrücken</t>
+          <t>Katwijk - Koninklijke HFC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
         <v>60</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-01-2025 18:00</t>
+          <t>25-01-2025 12:50</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MALTA</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Zabbar St. Patrick - Balzan FC</t>
+          <t>Al Taee - Al Suqoor</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>46.7</v>
+        <v>26.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00</t>
+          <t>25-01-2025 15:15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Cordoba - Racing Santander</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>93.3</v>
       </c>
       <c r="F27" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="G27" t="n">
-        <v>35</v>
+        <v>33.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-01-2025 02:00</t>
+          <t>25-01-2025 19:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cimarrones - Los Cabos United</t>
+          <t>FC Winterthur - FC Lugano</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>88.8</v>
       </c>
       <c r="F28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>68.8</v>
       </c>
       <c r="H28" t="n">
         <v>2.45</v>
@@ -2701,69 +3345,69 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25-01-2025 15:15</t>
+          <t>25-01-2025 11:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cordoba - Racing Santander</t>
+          <t>Lampang FC - Chonburi FC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>93.3</v>
+        <v>75</v>
       </c>
       <c r="F29" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G29" t="n">
-        <v>33.3</v>
+        <v>60</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25-01-2025 19:30</t>
+          <t>25-01-2025 12:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>THAILAND</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>THAI LEAGUE 2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Winterthur - FC Lugano</t>
+          <t>Suphanburi - Chanthaburi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>88.8</v>
+        <v>85</v>
       </c>
       <c r="F30" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="G30" t="n">
-        <v>68.8</v>
+        <v>35</v>
       </c>
       <c r="H30" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="31">
@@ -2832,6 +3476,278 @@
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>25-01-2025 23:30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WORLD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SUDAMERICANO U20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Peru U20 - Venezuela U20</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>80</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>26-01-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LIGUE 1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nice - Marseille</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>85</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G34" t="n">
+        <v>45</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>26-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GREECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SUPER LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PAOK - Levadiakos</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>26-01-2025 06:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A-LEAGUE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers - Auckland</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>85</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G36" t="n">
+        <v>85</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Izarra</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>90</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G37" t="n">
+        <v>75</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Colonia Moscardó - SS Reyes</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Batman Petrolspor - Kastamonuspor 1966</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>80</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G39" t="n">
+        <v>60</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Van BB - Nazilli Belediyespor</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>80</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G40" t="n">
+        <v>45</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2888,57 +3804,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24-01-2025 19:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 2</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Martigues - Amiens</t>
+          <t>Dulwich Hamlet - Chichester City</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
+          <t>FRIENDLIES CLUBS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dulwich Hamlet - Chichester City</t>
+          <t>Sogndal - Hønefoss</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F3" t="n">
-        <v>2.45</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>26-01-2025 21:30</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EL-SALVADOR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fuerte San Francisco - Municipal Limeño</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
         <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>71.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>73.3</v>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
@@ -690,125 +690,125 @@
         <v>73.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 12:00</t>
+          <t>26-01-2025 16:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ALBANIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2. BUNDESLIGA</t>
+          <t>SUPERLIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Schalke 04 - 1. FC Nürnberg</t>
+          <t>AF Elbasani - Laci</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>73.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00</t>
+          <t>26-01-2025 17:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Achuapa - Malacateco</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>26-01-2025 17:00</t>
+          <t>26-01-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>LIGA 3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Achuapa - Malacateco</t>
+          <t>São João Ver - Varzim</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>73.3</v>
       </c>
       <c r="F12" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>26-01-2025 15:00</t>
+          <t>26-01-2025 17:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>São João Ver - Varzim</t>
+          <t>Celta De Vigo II - Lugo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-01-2025 17:00</t>
+          <t>26-01-2025 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -818,19 +818,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Celta De Vigo II - Lugo</t>
+          <t>Compostela - Deportivo La Coruña II</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="15">
@@ -846,19 +846,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 1</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Compostela - Deportivo La Coruña II</t>
+          <t>Guadalajara - Tenerife II</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="16">
@@ -869,51 +869,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guadalajara - Tenerife II</t>
+          <t>Batman Petrolspor - Kastamonuspor 1966</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Batman Petrolspor - Kastamonuspor 1966</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>70</v>
-      </c>
-      <c r="F17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -928,7 +900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1021,7 @@
         <v>66.7</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5">
@@ -1077,7 +1049,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1139,35 +1111,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25-01-2025 15:30</t>
+          <t>25-01-2025 18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>PAULISTA - A3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SV Sandhausen - FC Saarbrücken</t>
+          <t>União São João - Itapirense</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 15:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1182,42 +1154,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Verl - Alemannia Aachen</t>
+          <t>SV Sandhausen - FC Saarbrücken</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 12:30</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IRAN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PERSIAN GULF PRO LEAGUE</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan - Gol Gohar</t>
+          <t>Verl - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>66.7</v>
+        <v>63.3</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1245,140 +1217,140 @@
         <v>73.3</v>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-01-2025 22:30</t>
+          <t>25-01-2025 13:30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>SERIE D - GIRONE B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>General Caballero - Deportivo Recoleta</t>
+          <t>Breno - Desenzano Calvina</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-01-2025 13:10</t>
+          <t>25-01-2025 13:30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UNITED-ARAB-EMIRATES</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>SERIE D - GIRONE C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Masfut - Al-Dhafra</t>
+          <t>Portosummaga - Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26-01-2025 14:00</t>
+          <t>25-01-2025 15:03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>U23 LEAGUE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brescia - Catanzaro</t>
+          <t>Guadalajara U23 - Tigres UANL U23</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-01-2025 12:30</t>
+          <t>25-01-2025 22:30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>PARAGUAY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aswan Sc - Abu Qair Semad</t>
+          <t>General Caballero - Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F15" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>26-01-2025 01:15</t>
+          <t>25-01-2025 13:10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EL-SALVADOR</t>
+          <t>UNITED-ARAB-EMIRATES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISION</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Isidro Metapán - Once Municipal</t>
+          <t>Masfut - Al-Dhafra</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1391,85 +1363,281 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>26-01-2025 01:00</t>
+          <t>26-01-2025 14:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marquense - Guastatoya</t>
+          <t>Brescia - Catanzaro</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.7</v>
+        <v>86.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-01-2025 15:30</t>
+          <t>26-01-2025 12:30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>EGYPT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>SECOND LEAGUE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Porto B - Tondela</t>
+          <t>Aswan Sc - Abu Qair Semad</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>73.3</v>
+        <v>60</v>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-01-2025 17:30</t>
+          <t>26-01-2025 01:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>EL-SALVADOR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Racing Ferrol - Burgos</t>
+          <t>Isidro Metapán - Once Municipal</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>60</v>
       </c>
       <c r="F19" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>26-01-2025 13:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur U21 - Liverpool U21</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>26-01-2025 15:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ETHIOPIA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sidama Bunna - Mebrat Hayl</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>26-01-2025 01:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GUATEMALA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>LIGA NACIONAL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Marquense - Guastatoya</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FC Porto B - Tondela</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>26-01-2025 17:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Racing Ferrol - Burgos</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" t="n">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3. LIG - GROUP 1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Anadolu Üniversitesi - Kahramanmaraşspor</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3. LIG - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Etimesgut Belediyespor - 1954 Kelkit Belediyespor</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,7 +1828,7 @@
         <v>82.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7">
@@ -1744,452 +1912,452 @@
         <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3. LIGA</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Verl - Alemannia Aachen</t>
+          <t>Scarborough Athletic - Chester</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>84.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25-01-2025 21:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HONDURAS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CD Marathon - Victoria</t>
+          <t>Weston-super-Mare - Welling United</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>25-01-2025 14:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE A</t>
+          <t>NATIONAL LEAGUE - SOUTH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clodiense - Arzignano Valchiampo</t>
+          <t>Weymouth - Enfield Town</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>86.7</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-01-2025 16:30</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SERIE C - GIRONE B</t>
+          <t>3. LIGA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Città Di Campobasso - Gubbio</t>
+          <t>Verl - Alemannia Aachen</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>25-01-2025 09:30</t>
+          <t>25-01-2025 21:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MYANMAR</t>
+          <t>HONDURAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NATIONAL LEAGUE</t>
+          <t>LIGA NACIONAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rakhine United - Yangon United</t>
+          <t>CD Marathon - Victoria</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80.8</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-01-2025 11:00</t>
+          <t>25-01-2025 14:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>SERIE C - GIRONE A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Felgueiras 1932 - Alverca</t>
+          <t>Clodiense - Arzignano Valchiampo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>83.3</v>
+        <v>86.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-01-2025 14:00</t>
+          <t>25-01-2025 16:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>SERIE C - GIRONE B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Leixoes - Chaves</t>
+          <t>Città Di Campobasso - Gubbio</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-01-2025 15:00</t>
+          <t>25-01-2025 18:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>MALTA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Recreativo Huelva - AD Ceuta FC</t>
+          <t>Zabbar St. Patrick - Balzan FC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>84</v>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26-01-2025 16:30</t>
+          <t>25-01-2025 14:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SEGUNDA LIGA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aston Villa - West Ham</t>
+          <t>Leixoes - Chaves</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>26-01-2025 11:30</t>
+          <t>25-01-2025 19:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SERIE A</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AC Milan - Parma</t>
+          <t>Real Unión - Gimnástica Segoviana</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26-01-2025 13:30</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>PRIMERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Waalwijk - Willem II</t>
+          <t>Recreativo Huelva - AD Ceuta FC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>26-01-2025 14:00</t>
+          <t>25-01-2025 19:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brescia - Catanzaro</t>
+          <t>Roces - Lenense</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>26-01-2025 17:30</t>
+          <t>26-01-2025 16:30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Anderlecht - KV Mechelen</t>
+          <t>Aston Villa - West Ham</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-01-2025 13:00</t>
+          <t>26-01-2025 19:45</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MINEIRO - 1</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Uberlandia - Itabirito</t>
+          <t>Lazio - Fiorentina</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>86.7</v>
+        <v>76.7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26-01-2025 21:30</t>
+          <t>26-01-2025 13:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PARANAENSE - 1</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Londrina - Parana</t>
+          <t>Waalwijk - Willem II</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>75.8</v>
+        <v>77.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>26-01-2025 21:00</t>
+          <t>26-01-2025 14:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHILE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COPA CHILE</t>
+          <t>SERIE B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>U. Catolica - Everton De Vina</t>
+          <t>Brescia - Catanzaro</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F25" t="n">
         <v>1.83</v>
@@ -2198,169 +2366,421 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26-01-2025 13:30</t>
+          <t>26-01-2025 17:30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE C</t>
+          <t>JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mestre - Caravaggio</t>
+          <t>Anderlecht - KV Mechelen</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F26" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26-01-2025 01:05</t>
+          <t>26-01-2025 13:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LIGA DE EXPANSIÓN MX</t>
+          <t>MINEIRO - 1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cancún - Alebrijes De Oaxaca</t>
+          <t>Uberlandia - Itabirito</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>80.8</v>
+        <v>86.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26-01-2025 23:45</t>
+          <t>26-01-2025 21:30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PARAGUAY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
+          <t>PARANAENSE - 1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cerro Porteno - Libertad Asuncion</t>
+          <t>Londrina - Parana</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>83.3</v>
+        <v>75.8</v>
       </c>
       <c r="F28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26-01-2025 15:30</t>
+          <t>26-01-2025 21:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>CHILE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>COPA CHILE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Porto B - Tondela</t>
+          <t>U. Catolica - Everton De Vina</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>26-01-2025 13:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SEGUNDA LIGA</t>
+          <t>SERIE D - GIRONE C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Penafiel - Vizela</t>
+          <t>Mestre - Caravaggio</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>81.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="F30" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>26-01-2025 01:05</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cancún - Alebrijes De Oaxaca</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>26-01-2025 03:05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MEXICO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LIGA DE EXPANSIÓN MX</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Celaya - Venados FC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>26-01-2025 23:45</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DIVISION PROFESIONAL - APERTURA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cerro Porteno - Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>26-01-2025 15:30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FC Porto B - Tondela</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>90</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>26-01-2025 11:00</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SEGUNDA LIGA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Penafiel - Vizela</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Anguiano - Calahorra</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Real Sociedad III - Tudelano</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Real Zaragoza II - Izarra</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>TURKEY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>2. LIG</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Batman Petrolspor - Kastamonuspor 1966</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="E39" t="n">
         <v>76</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F39" t="n">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>26-01-2025 11:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TURKEY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2. LIG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Van BB - Nazilli Belediyespor</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +2794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,13 +3073,13 @@
         <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
         <v>67.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="9">
@@ -2721,7 +3141,7 @@
         <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
         <v>60</v>
@@ -2761,7 +3181,7 @@
         <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="12">
@@ -2823,13 +3243,13 @@
         <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
         <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="14">
@@ -2857,13 +3277,13 @@
         <v>90</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G14" t="n">
         <v>55</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15">
@@ -2897,7 +3317,7 @@
         <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
@@ -2913,25 +3333,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bedford Town - Banbury United</t>
+          <t>Cray Valley PM - Canvey Island</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>80</v>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="G16" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
@@ -2947,25 +3367,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>NON LEAGUE PREMIER - ISTHMIAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dorchester Town - Sholing</t>
+          <t>Dulwich Hamlet - Chichester City</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>80</v>
+        <v>66.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H17" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="18">
@@ -2981,25 +3401,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON LEAGUE PREMIER - SOUTHERN SOUTH</t>
+          <t>NON LEAGUE PREMIER - SOUTHERN CENTRAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Frome Town - Gloucester City</t>
+          <t>Bedford Town - Banbury United</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
         <v>60</v>
       </c>
       <c r="H18" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19">
@@ -3020,20 +3440,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gosport Borough - Walton &amp; Hersham</t>
+          <t>Frome Town - Gloucester City</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>73.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20">
@@ -3054,17 +3474,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Winchester City - Swindon Supermarine</t>
+          <t>Gosport Borough - Walton &amp; Hersham</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
         <v>2.2</v>
@@ -3095,13 +3515,13 @@
         <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
         <v>60</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
@@ -3163,44 +3583,44 @@
         <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G23" t="n">
         <v>46.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-01-2025 00:00</t>
+          <t>25-01-2025 14:30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGA PREMIER SERIE A</t>
+          <t>TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tecos - Real Apodaca</t>
+          <t>Katwijk - Koninklijke HFC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F24" t="n">
         <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H24" t="n">
         <v>2.7</v>
@@ -3209,211 +3629,207 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-01-2025 14:30</t>
+          <t>25-01-2025 18:30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TWEEDE DIVISIE</t>
+          <t>CAMPEONATO DE PORTUGAL PRIO - GROUP D</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Katwijk - Koninklijke HFC</t>
+          <t>Louletano - Comércio Indústria</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>86.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.7</v>
-      </c>
+        <v>66.7</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25-01-2025 12:50</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAUDI-ARABIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIVISION 1</t>
+          <t>JÚNIORES U19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Al Taee - Al Suqoor</t>
+          <t>União Nogueirense U19 - Oliveirense U19</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25-01-2025 15:15</t>
+          <t>25-01-2025 12:50</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SAUDI-ARABIA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN</t>
+          <t>DIVISION 1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cordoba - Racing Santander</t>
+          <t>Al Taee - Al Suqoor</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>93.3</v>
+        <v>80</v>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
-        <v>33.3</v>
+        <v>26.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-01-2025 19:30</t>
+          <t>25-01-2025 15:15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SWITZERLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Winterthur - FC Lugano</t>
+          <t>Cordoba - Racing Santander</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>88.8</v>
+        <v>93.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>68.8</v>
+        <v>33.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>25-01-2025 11:30</t>
+          <t>25-01-2025 19:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>TERCERA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lampang FC - Chonburi FC</t>
+          <t>Roces - Lenense</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F29" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25-01-2025 12:00</t>
+          <t>25-01-2025 19:30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>THAILAND</t>
+          <t>SWITZERLAND</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>THAI LEAGUE 2</t>
+          <t>SUPER LEAGUE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Suphanburi - Chanthaburi</t>
+          <t>FC Winterthur - FC Lugano</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>85</v>
+        <v>88.8</v>
       </c>
       <c r="F30" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="G30" t="n">
-        <v>35</v>
+        <v>68.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25-01-2025 10:30</t>
+          <t>25-01-2025 13:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3428,119 +3844,119 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boluspor - Genclerbirligi</t>
+          <t>İstanbulspor - Amed</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.8</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>61.3</v>
+        <v>60</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 23:30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>İstanbulspor - Amed</t>
+          <t>Peru U20 - Venezuela U20</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>25-01-2025 23:30</t>
+          <t>26-01-2025 19:45</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SUDAMERICANO U20</t>
+          <t>LIGUE 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Peru U20 - Venezuela U20</t>
+          <t>Nice - Marseille</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F33" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26-01-2025 19:45</t>
+          <t>26-01-2025 06:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>A-LEAGUE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nice - Marseille</t>
+          <t>Western Sydney Wanderers - Auckland</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F34" t="n">
         <v>1.73</v>
       </c>
       <c r="G34" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H34" t="n">
         <v>2.75</v>
@@ -3549,69 +3965,69 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>26-01-2025 17:30</t>
+          <t>26-01-2025 01:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GREECE</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUPER LEAGUE 1</t>
+          <t>LIGA PREMIER SERIE A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PAOK - Levadiakos</t>
+          <t>Reboceros La Piedad - Zacatepec 1948</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>80</v>
       </c>
       <c r="F35" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="G35" t="n">
-        <v>48.8</v>
+        <v>80</v>
       </c>
       <c r="H35" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>26-01-2025 06:00</t>
+          <t>26-01-2025 11:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers - Auckland</t>
+          <t>Real Zaragoza II - Izarra</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F36" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H36" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="37">
@@ -3627,25 +4043,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Real Zaragoza II - Izarra</t>
+          <t>Colonia Moscardó - SS Reyes</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>90</v>
+        <v>73.3</v>
       </c>
       <c r="F37" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="G37" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="38">
@@ -3656,98 +4072,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>2. LIG</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Colonia Moscardó - SS Reyes</t>
+          <t>Batman Petrolspor - Kastamonuspor 1966</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F38" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="G38" t="n">
         <v>60</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Batman Petrolspor - Kastamonuspor 1966</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>80</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G39" t="n">
-        <v>60</v>
-      </c>
-      <c r="H39" t="n">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Van BB - Nazilli Belediyespor</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>80</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>45</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.88</v>
       </c>
     </row>
   </sheetData>
@@ -3826,35 +4174,35 @@
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25-01-2025 13:00</t>
+          <t>25-01-2025 15:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WORLD</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FRIENDLIES CLUBS</t>
+          <t>JÚNIORES U19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sogndal - Hønefoss</t>
+          <t>União Nogueirense U19 - Oliveirense U19</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4">

--- a/betclever_predictions.xlsx
+++ b/betclever_predictions.xlsx
@@ -472,147 +472,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-01-2025 16:00</t>
+          <t>27-01-2025 19:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALBANIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUPERLIGA</t>
+          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AF Elbasani - Laci</t>
+          <t>Newcastle United U21 - Everton U21</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>73.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-01-2025 17:00</t>
+          <t>27-01-2025 19:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GUATEMALA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LIGA NACIONAL</t>
+          <t>PREMIER LEAGUE CUP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Achuapa - Malacateco</t>
+          <t>Brentford U21 - Chelsea U21</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-01-2025 15:00</t>
+          <t>27-01-2025 12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>IRAN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LIGA 3</t>
+          <t>PERSIAN GULF PRO LEAGUE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>São João Ver - Varzim</t>
+          <t>Shams Azar Qazvin - Chadormalu SC</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>73.3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>27-01-2025 17:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>TURKEY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>1. LIG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Guadalajara - Tenerife II</t>
+          <t>Sakaryaspor - Manisa BBSK</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>73.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>27-01-2025 23:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>WORLD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2. LIG</t>
+          <t>SUDAMERICANO U20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Batman Petrolspor - Kastamonuspor 1966</t>
+          <t>Uruguay U20 - Paraguay U20</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>86.7</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-01-2025 19:00</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -622,47 +622,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
+          <t>LEAGUE TWO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Newcastle United U21 - Everton U21</t>
+          <t>Swindon Town - Tranmere</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27-01-2025 17:00</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TURKEY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1. LIG</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sakaryaspor - Manisa BBSK</t>
+          <t>Alfreton Town - Leamington</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>73.3</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,26 +719,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-01-2025 14:00</t>
+          <t>27-01-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>CARIOCA - 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brescia - Catanzaro</t>
+          <t>Nova Iguaçu - Boavista SC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86.7</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
         <v>3.2</v>
@@ -747,281 +747,57 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-01-2025 19:00</t>
+          <t>27-01-2025 12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>INDONESIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GOIANO - 1</t>
+          <t>LIGA 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ABECAT Ouvidorense - CRAC</t>
+          <t>Persijap - Persela Lamongan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>66.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-01-2025 12:30</t>
+          <t>28-01-2025 20:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EGYPT</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SECOND LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aswan Sc - Abu Qair Semad</t>
+          <t>Huddersfield - Birmingham</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>26-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENGLAND</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE 2 DIVISION ONE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tottenham Hotspur U21 - Liverpool U21</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ETHIOPIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sidama Bunna - Mebrat Hayl</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FC Porto B - Tondela</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Utiel - Atzeneta</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3. LIG - GROUP 1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Anadolu Üniversitesi - Kahramanmaraşspor</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>60</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3. LIG - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Etimesgut Belediyespor - 1954 Kelkit Belediyespor</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>26-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ZAMBIA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Green Eagles - ZESCO United</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>27-01-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CARIOCA - 1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Nova Iguaçu - Boavista SC</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>60</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,35 +854,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-01-2025 16:30</t>
+          <t>27-01-2025 19:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE</t>
+          <t>SERIE A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aston Villa - West Ham</t>
+          <t>Genoa - Monza</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>76.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-01-2025 19:45</t>
+          <t>27-01-2025 17:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1121,48 +897,48 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lazio - Fiorentina</t>
+          <t>Venezia - Verona</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-01-2025 13:30</t>
+          <t>27-01-2025 18:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ROMANIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EREDIVISIE</t>
+          <t>LIGA I</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Waalwijk - Willem II</t>
+          <t>CFR 1907 Cluj - Farul Constanta</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>77.8</v>
+        <v>83.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-01-2025 14:00</t>
+          <t>27-01-2025 19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1172,16 +948,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SERIE B</t>
+          <t>SERIE C - GIRONE C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brescia - Catanzaro</t>
+          <t>Crotone - AZ Picerno</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
         <v>1.83</v>
@@ -1190,589 +966,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-01-2025 17:30</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Anderlecht - KV Mechelen</t>
+          <t>Rotherham - Cambridge United</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>80</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>26-01-2025 13:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MINEIRO - 1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Uberlandia - Itabirito</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>26-01-2025 21:30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BRAZIL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PARANAENSE - 1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Londrina - Parana</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>26-01-2025 21:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CHILE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COPA CHILE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>U. Catolica - Everton De Vina</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-01-2025 12:30</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EGYPT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SECOND LEAGUE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dayrout - El Seka El Hadid</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>26-01-2025 13:30</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SERIE D - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mestre - Caravaggio</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>26-01-2025 23:45</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PARAGUAY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DIVISION PROFESIONAL - APERTURA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Cerro Porteno - Libertad Asuncion</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>FC Porto B - Tondela</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>90</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SEGUNDA LIGA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Penafiel - Vizela</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Anguiano - Calahorra</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>80</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Real Sociedad III - Tudelano</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Real Zaragoza II - Izarra</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>26-01-2025 12:00</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 12</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UD San Fernando - Herbania</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>El Ejido - Malaga City</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>80</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Batman Petrolspor - Kastamonuspor 1966</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>76</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Van BB - Nazilli Belediyespor</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>26-01-2025 21:45</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>VENEZUELA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>PRIMERA DIVISIÓN</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Deportivo Tachira FC - Zamora FC</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>27-01-2025 19:45</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SERIE A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Genoa - Monza</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F23" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>27-01-2025 17:30</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SERIE A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Venezia - Verona</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>80</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>27-01-2025 18:00</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ROMANIA</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>LIGA I</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CFR 1907 Cluj - Farul Constanta</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>27-01-2025 19:30</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SERIE C - GIRONE C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Crotone - AZ Picerno</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>75</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.83</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,66 +1055,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-01-2025 19:45</t>
+          <t>27-01-2025 18:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ISRAEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LIGUE 1</t>
+          <t>LIGAT HA'AL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nice - Marseille</t>
+          <t>Maccabi Haifa - Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26-01-2025 06:00</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A-LEAGUE</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers - Auckland</t>
+          <t>Bolton - Northampton</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
@@ -1907,64 +1123,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26-01-2025 13:30</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SERIE D - GIRONE F</t>
+          <t>LEAGUE ONE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Castelfidardo Calcio - Chieti</t>
+          <t>Exeter City - Leyton Orient</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>80</v>
       </c>
       <c r="F4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>28-01-2025 19:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 2</t>
+          <t>EREDIVISIE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Zaragoza II - Izarra</t>
+          <t>Heracles - Groningen</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F5" t="n">
         <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1973,305 +1191,103 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-01-2025 10:30</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>SCOTLAND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Navalcarnero - Unión Sur Yaiza</t>
+          <t>Hamilton Academical - Raith Rovers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>86.7</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26-01-2025 11:00</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEGUNDA DIVISIÓN RFEF - GROUP 5</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Colonia Moscardó - SS Reyes</t>
+          <t>Radcliffe - Chester</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>73.3</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>26-01-2025 10:45</t>
+          <t>28-01-2025 19:45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 13</t>
+          <t>NATIONAL LEAGUE - NORTH</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Unión Molinense - SFC Minerva</t>
+          <t>Rushall Olympic - King's Lynn Town</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Real Oviedo II - Covadonga</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>26-01-2025 15:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>TERCERA DIVISIÓN RFEF - GROUP 9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>El Ejido - Malaga City</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2. LIG</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Batman Petrolspor - Kastamonuspor 1966</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>80</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G11" t="n">
-        <v>60</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>26-01-2025 11:00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TURKEY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3. LIG - GROUP 2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Beykoz İshaklıspor - Fatsa Belediyespor</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G12" t="n">
-        <v>60</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>26-01-2025 14:30</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>UNITED-ARAB-EMIRATES</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PRESIDENTS CUP</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Al-Wasl FC - Al-Ittihad Kalba</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>80</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G13" t="n">
-        <v>70</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>27-01-2025 18:30</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ISRAEL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>LIGAT HA'AL</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Maccabi Haifa - Maccabi Tel Aviv</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>65</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G14" t="n">
-        <v>65</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,29 +1344,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-01-2025 21:30</t>
+          <t>27-01-2025 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EL-SALVADOR</t>
+          <t>COSTA-RICA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIMERA DIVISION</t>
+          <t>LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fuerte San Francisco - Municipal Limeño</t>
+          <t>Antioquia - Limón Black Star</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>28-01-2025 19:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NATIONAL LEAGUE - NORTH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Radcliffe - Chester</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>73.3</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.6</v>
+      <c r="F3" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>
